--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1205608.228474058</v>
+        <v>1143434.267404124</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10758801.54646443</v>
+        <v>10758801.54646444</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6414733.008248358</v>
+        <v>6414733.008248359</v>
       </c>
     </row>
     <row r="11">
@@ -1372,20 +1372,20 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>192.3881347568083</v>
       </c>
       <c r="X11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>7.317903633380329</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5.786830920226238</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W12" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>45.99632927639364</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>217.0162348738041</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,20 +1609,20 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>192.388134756808</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.72829087491985</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>196.1164256317279</v>
       </c>
       <c r="Y14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,16 +1694,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>130.5676123730792</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>222.6571589824342</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>112.604208628695</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>37.18425469186683</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>141.7575851020797</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>222.6571589824342</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>192.3881347568083</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="E17" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="F17" t="n">
-        <v>222.6571589824342</v>
+        <v>46.12823741901145</v>
       </c>
       <c r="G17" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7.317903633380301</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>222.6571589824342</v>
+        <v>182.8921255384527</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>13.20000148975409</v>
+        <v>158.5848887138164</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V19" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,58 +2092,58 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>196.116425631728</v>
+      </c>
+      <c r="U20" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="G20" t="n">
-        <v>138.2556937212304</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
         <v>222.6571589824342</v>
       </c>
-      <c r="I20" t="n">
-        <v>120.7842216425874</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.728290874919821</v>
-      </c>
-      <c r="S20" t="n">
-        <v>156.0053783754247</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.0987399612021</v>
       </c>
       <c r="H21" t="n">
-        <v>57.87244322082636</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I21" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T21" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U21" t="n">
-        <v>222.6571589824342</v>
+        <v>138.9970496014606</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.69690814483685</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>222.6571589824342</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>17.49717068213807</v>
       </c>
       <c r="V22" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="C23" t="n">
-        <v>219.2267577417799</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>59.49308849143546</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>248.8950473907584</v>
@@ -2408,13 +2408,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22.70974236441128</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.0987399612021</v>
       </c>
       <c r="H24" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>46.53917216822466</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>156.5091408510607</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.21409780816384</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
-        <v>223.4866593014432</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>132.5285387540966</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,64 +2566,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>219.2267577417799</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="G26" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="H26" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.315079796973493</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>212.9116779448064</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>72.76058439308937</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>196.2389925646834</v>
       </c>
       <c r="W27" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2119242402515</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.41521497870596</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>215.4984668668601</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="V29" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="W29" t="n">
-        <v>248.8950473907584</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.5867889220537</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,13 +2876,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>112.0003859466997</v>
+        <v>16.74808100443378</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>75.38502994985477</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>121.0430038519731</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>99.20474881230714</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>248.8950473907584</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.315079796973493</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T32" t="n">
         <v>212.9116779448064</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I33" t="n">
-        <v>2.266140219827161</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>248.8950473907584</v>
+        <v>75.79216386788454</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.82749639140635</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.9216826556128</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="V34" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>248.8950473907584</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>202.133615794436</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>222.6571589824342</v>
-      </c>
-      <c r="W35" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="X35" t="n">
-        <v>222.6571589824342</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>196.116425631728</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W36" t="n">
-        <v>177.6162871557282</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>152.0566308582924</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>14.43474279625021</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>36.38275638138352</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>71.6039131142208</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>171.7184585989045</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>190.1281427652065</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>98.87738163762593</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V40" t="n">
-        <v>33.71343881025584</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>71.6039131142208</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6571589824343</v>
+        <v>192.3881347568082</v>
       </c>
       <c r="I41" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>222.6571589824343</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W41" t="n">
         <v>222.6571589824343</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>74.06746112655881</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>222.6571589824343</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>121.4559175408632</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>76.53861761075292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>222.6571589824343</v>
+      </c>
+      <c r="G44" t="n">
+        <v>222.6571589824343</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>196.116425631728</v>
       </c>
-      <c r="C44" t="n">
+      <c r="V44" t="n">
         <v>222.6571589824343</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>17.5099332030639</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>222.6571589824343</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W45" t="n">
         <v>222.6571589824343</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.74615852549996</v>
+        <v>124.7370635730186</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>222.6571589824343</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>242.7187939129728</v>
       </c>
       <c r="C11" t="n">
-        <v>17.81257271859474</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="D11" t="n">
-        <v>17.81257271859474</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="E11" t="n">
-        <v>17.81257271859474</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="F11" t="n">
-        <v>17.81257271859474</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="G11" t="n">
         <v>17.81257271859474</v>
@@ -5041,22 +5041,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J11" t="n">
-        <v>34.05974234075606</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K11" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061088</v>
       </c>
       <c r="L11" t="n">
-        <v>239.204631471134</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M11" t="n">
         <v>415.5865117704858</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734925</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974407</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P11" t="n">
         <v>861.9898061237596</v>
@@ -5065,22 +5065,22 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R11" t="n">
-        <v>890.6286359297369</v>
+        <v>886.86268555103</v>
       </c>
       <c r="S11" t="n">
-        <v>890.6286359297369</v>
+        <v>886.86268555103</v>
       </c>
       <c r="T11" t="n">
-        <v>692.5312363017288</v>
+        <v>886.86268555103</v>
       </c>
       <c r="U11" t="n">
-        <v>467.6250151073508</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="V11" t="n">
-        <v>467.6250151073508</v>
+        <v>437.0502431622741</v>
       </c>
       <c r="W11" t="n">
-        <v>467.6250151073508</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="X11" t="n">
         <v>242.7187939129728</v>
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>468.6038258031711</v>
+        <v>25.20439457049406</v>
       </c>
       <c r="C12" t="n">
-        <v>468.6038258031711</v>
+        <v>25.20439457049406</v>
       </c>
       <c r="D12" t="n">
-        <v>468.6038258031711</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E12" t="n">
-        <v>309.3663707977156</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F12" t="n">
-        <v>303.5210870399113</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G12" t="n">
-        <v>166.0476123316264</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H12" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I12" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J12" t="n">
-        <v>62.24029840864262</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K12" t="n">
-        <v>124.7714519989688</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1748459799669</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O12" t="n">
-        <v>769.2186132763801</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P12" t="n">
-        <v>871.904821527594</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q12" t="n">
         <v>890.6286359297369</v>
@@ -5150,22 +5150,22 @@
         <v>890.6286359297369</v>
       </c>
       <c r="T12" t="n">
-        <v>693.5100469975491</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U12" t="n">
-        <v>693.5100469975491</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="V12" t="n">
-        <v>693.5100469975491</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="W12" t="n">
-        <v>468.6038258031711</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="X12" t="n">
-        <v>468.6038258031711</v>
+        <v>232.964693335448</v>
       </c>
       <c r="Y12" t="n">
-        <v>468.6038258031711</v>
+        <v>25.20439457049406</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G13" t="n">
-        <v>64.27351138161862</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H13" t="n">
         <v>17.81257271859474</v>
@@ -5211,13 +5211,13 @@
         <v>497.8506719203921</v>
       </c>
       <c r="N13" t="n">
-        <v>596.7881470722602</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O13" t="n">
-        <v>767.1575751028232</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P13" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q13" t="n">
         <v>890.6286359297369</v>
@@ -5229,22 +5229,22 @@
         <v>682.7196911108505</v>
       </c>
       <c r="T13" t="n">
-        <v>457.8134699164725</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="U13" t="n">
-        <v>457.8134699164725</v>
+        <v>463.5113730565029</v>
       </c>
       <c r="V13" t="n">
-        <v>232.9072487220944</v>
+        <v>463.5113730565029</v>
       </c>
       <c r="W13" t="n">
-        <v>232.9072487220944</v>
+        <v>463.5113730565029</v>
       </c>
       <c r="X13" t="n">
-        <v>232.9072487220944</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="Y13" t="n">
-        <v>232.9072487220944</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>661.9564643566518</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C14" t="n">
         <v>467.6250151073508</v>
       </c>
       <c r="D14" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="E14" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="F14" t="n">
         <v>242.7187939129728</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="F14" t="n">
-        <v>17.81257271859474</v>
       </c>
       <c r="G14" t="n">
         <v>17.81257271859474</v>
@@ -5278,52 +5278,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J14" t="n">
-        <v>34.05974234075575</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K14" t="n">
-        <v>109.1485562061089</v>
+        <v>109.1485562061088</v>
       </c>
       <c r="L14" t="n">
-        <v>239.2046314711343</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M14" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N14" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O14" t="n">
-        <v>759.7050708974407</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P14" t="n">
-        <v>861.9898061237598</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q14" t="n">
         <v>890.6286359297369</v>
       </c>
       <c r="R14" t="n">
-        <v>886.8626855510299</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S14" t="n">
-        <v>886.8626855510299</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T14" t="n">
-        <v>886.8626855510299</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U14" t="n">
-        <v>886.8626855510299</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="V14" t="n">
-        <v>886.8626855510299</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="W14" t="n">
-        <v>886.8626855510299</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="X14" t="n">
-        <v>886.8626855510299</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y14" t="n">
-        <v>661.9564643566518</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>457.870914529826</v>
+        <v>551.9807898578891</v>
       </c>
       <c r="C15" t="n">
-        <v>457.870914529826</v>
+        <v>551.9807898578891</v>
       </c>
       <c r="D15" t="n">
-        <v>308.9365048685747</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="E15" t="n">
-        <v>149.6990498631192</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="F15" t="n">
-        <v>17.81257271859474</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="G15" t="n">
-        <v>17.81257271859474</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H15" t="n">
         <v>17.81257271859474</v>
@@ -5357,16 +5357,16 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J15" t="n">
-        <v>62.24029840864287</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K15" t="n">
-        <v>124.771451998969</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L15" t="n">
-        <v>255.1748459799671</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7063241973257</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N15" t="n">
         <v>617.1863751510018</v>
@@ -5396,13 +5396,13 @@
         <v>665.7224147353588</v>
       </c>
       <c r="W15" t="n">
-        <v>665.7224147353588</v>
+        <v>551.9807898578891</v>
       </c>
       <c r="X15" t="n">
-        <v>457.870914529826</v>
+        <v>551.9807898578891</v>
       </c>
       <c r="Y15" t="n">
-        <v>457.870914529826</v>
+        <v>551.9807898578891</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>297.6267136398902</v>
+        <v>55.37242594270265</v>
       </c>
       <c r="C16" t="n">
-        <v>297.6267136398902</v>
+        <v>55.37242594270265</v>
       </c>
       <c r="D16" t="n">
-        <v>297.6267136398902</v>
+        <v>55.37242594270265</v>
       </c>
       <c r="E16" t="n">
-        <v>297.6267136398902</v>
+        <v>55.37242594270265</v>
       </c>
       <c r="F16" t="n">
-        <v>297.6267136398902</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G16" t="n">
-        <v>297.6267136398902</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H16" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I16" t="n">
         <v>17.81257271859474</v>
@@ -5445,16 +5445,16 @@
         <v>198.7269740270977</v>
       </c>
       <c r="M16" t="n">
-        <v>399.8649672306028</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N16" t="n">
-        <v>601.6549649431016</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O16" t="n">
-        <v>772.0243929736646</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P16" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q16" t="n">
         <v>890.6286359297369</v>
@@ -5463,25 +5463,25 @@
         <v>890.6286359297369</v>
       </c>
       <c r="S16" t="n">
-        <v>890.6286359297369</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="T16" t="n">
-        <v>890.6286359297369</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="U16" t="n">
-        <v>665.7224147353588</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="V16" t="n">
-        <v>522.5329348342682</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="W16" t="n">
-        <v>297.6267136398902</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="X16" t="n">
-        <v>297.6267136398902</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="Y16" t="n">
-        <v>297.6267136398902</v>
+        <v>237.0208907729424</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="C17" t="n">
-        <v>692.5312363017288</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="D17" t="n">
-        <v>692.5312363017288</v>
+        <v>289.3129731240954</v>
       </c>
       <c r="E17" t="n">
-        <v>467.6250151073508</v>
+        <v>64.40675192971742</v>
       </c>
       <c r="F17" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G17" t="n">
         <v>17.81257271859474</v>
@@ -5515,7 +5515,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J17" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K17" t="n">
         <v>109.1485562061088</v>
@@ -5524,16 +5524,16 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M17" t="n">
-        <v>415.5865117704858</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N17" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734928</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974408</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237601</v>
       </c>
       <c r="Q17" t="n">
         <v>890.6286359297369</v>
@@ -5542,25 +5542,25 @@
         <v>886.86268555103</v>
       </c>
       <c r="S17" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="T17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="U17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="V17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="W17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="X17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
       <c r="Y17" t="n">
-        <v>886.86268555103</v>
+        <v>514.2191943184735</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.81257271859474</v>
+        <v>498.0376149782923</v>
       </c>
       <c r="C18" t="n">
-        <v>17.81257271859474</v>
+        <v>323.5845856971653</v>
       </c>
       <c r="D18" t="n">
-        <v>17.81257271859474</v>
+        <v>323.5845856971653</v>
       </c>
       <c r="E18" t="n">
-        <v>17.81257271859474</v>
+        <v>164.3471306917098</v>
       </c>
       <c r="F18" t="n">
         <v>17.81257271859474</v>
@@ -5594,7 +5594,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J18" t="n">
-        <v>17.81257271859474</v>
+        <v>62.24029840864262</v>
       </c>
       <c r="K18" t="n">
         <v>124.7714519989688</v>
@@ -5627,19 +5627,19 @@
         <v>890.6286359297369</v>
       </c>
       <c r="U18" t="n">
-        <v>883.2368140778376</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="V18" t="n">
-        <v>658.3305928834595</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="W18" t="n">
-        <v>433.4243716890815</v>
+        <v>705.8891151838251</v>
       </c>
       <c r="X18" t="n">
-        <v>225.5728714835487</v>
+        <v>498.0376149782923</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.81257271859474</v>
+        <v>498.0376149782923</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>652.3890798972235</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="C19" t="n">
-        <v>483.4528969693166</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="D19" t="n">
-        <v>333.3362575569809</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="E19" t="n">
-        <v>333.3362575569809</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="F19" t="n">
-        <v>186.4463100590706</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="G19" t="n">
-        <v>17.81257271859474</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="H19" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I19" t="n">
         <v>17.81257271859474</v>
@@ -5700,25 +5700,25 @@
         <v>890.6286359297369</v>
       </c>
       <c r="S19" t="n">
-        <v>890.6286359297369</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="T19" t="n">
-        <v>877.2953010916015</v>
+        <v>522.5329348342682</v>
       </c>
       <c r="U19" t="n">
-        <v>877.2953010916015</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="V19" t="n">
-        <v>652.3890798972235</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="W19" t="n">
-        <v>652.3890798972235</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="X19" t="n">
-        <v>652.3890798972235</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="Y19" t="n">
-        <v>652.3890798972235</v>
+        <v>297.6267136398902</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F20" t="n">
-        <v>504.3752740784453</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G20" t="n">
-        <v>364.7230581984146</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H20" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I20" t="n">
         <v>17.81257271859474</v>
@@ -5776,28 +5776,28 @@
         <v>890.6286359297369</v>
       </c>
       <c r="R20" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S20" t="n">
-        <v>729.2814952728233</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T20" t="n">
-        <v>729.2814952728233</v>
+        <v>692.5312363017288</v>
       </c>
       <c r="U20" t="n">
-        <v>729.2814952728233</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V20" t="n">
-        <v>729.2814952728233</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="W20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="X20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y20" t="n">
-        <v>729.2814952728233</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="C21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="D21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="E21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="F21" t="n">
-        <v>260.7523255976383</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="G21" t="n">
-        <v>123.2788508893534</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H21" t="n">
-        <v>64.82183753498329</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I21" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J21" t="n">
-        <v>62.24029840864262</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K21" t="n">
-        <v>124.7714519989688</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L21" t="n">
-        <v>255.1748459799669</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M21" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N21" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O21" t="n">
-        <v>769.2186132763801</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P21" t="n">
-        <v>871.904821527594</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q21" t="n">
         <v>890.6286359297369</v>
@@ -5858,25 +5858,25 @@
         <v>890.6286359297369</v>
       </c>
       <c r="S21" t="n">
-        <v>890.6286359297369</v>
+        <v>740.5660293323212</v>
       </c>
       <c r="T21" t="n">
-        <v>693.5100469975491</v>
+        <v>543.4474404001335</v>
       </c>
       <c r="U21" t="n">
-        <v>468.6038258031711</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="V21" t="n">
-        <v>468.6038258031711</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="W21" t="n">
-        <v>468.6038258031711</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="X21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="Y21" t="n">
-        <v>260.7523255976383</v>
+        <v>403.0463801966379</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186.7487556465016</v>
+        <v>440.139560136535</v>
       </c>
       <c r="C22" t="n">
-        <v>17.81257271859474</v>
+        <v>440.139560136535</v>
       </c>
       <c r="D22" t="n">
-        <v>17.81257271859474</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="E22" t="n">
-        <v>17.81257271859474</v>
+        <v>290.0229207241993</v>
       </c>
       <c r="F22" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="G22" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="H22" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I22" t="n">
         <v>17.81257271859474</v>
@@ -5913,19 +5913,19 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K22" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L22" t="n">
-        <v>296.7126787168869</v>
+        <v>195.0714213037278</v>
       </c>
       <c r="M22" t="n">
-        <v>497.8506719203921</v>
+        <v>396.209414507233</v>
       </c>
       <c r="N22" t="n">
-        <v>699.6406696328909</v>
+        <v>597.9994122197318</v>
       </c>
       <c r="O22" t="n">
-        <v>870.0100976634538</v>
+        <v>768.3688402502947</v>
       </c>
       <c r="P22" t="n">
         <v>890.6286359297369</v>
@@ -5943,19 +5943,19 @@
         <v>457.8134699164725</v>
       </c>
       <c r="U22" t="n">
-        <v>457.8134699164725</v>
+        <v>440.139560136535</v>
       </c>
       <c r="V22" t="n">
-        <v>232.9072487220944</v>
+        <v>440.139560136535</v>
       </c>
       <c r="W22" t="n">
-        <v>232.9072487220944</v>
+        <v>440.139560136535</v>
       </c>
       <c r="X22" t="n">
-        <v>232.9072487220944</v>
+        <v>440.139560136535</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.9072487220944</v>
+        <v>440.139560136535</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.352773227402</v>
+        <v>331.4147713490322</v>
       </c>
       <c r="C23" t="n">
-        <v>19.91160379126067</v>
+        <v>331.4147713490322</v>
       </c>
       <c r="D23" t="n">
-        <v>19.91160379126067</v>
+        <v>80.00563257048842</v>
       </c>
       <c r="E23" t="n">
-        <v>19.91160379126067</v>
+        <v>80.00563257048842</v>
       </c>
       <c r="F23" t="n">
-        <v>19.91160379126067</v>
+        <v>80.00563257048842</v>
       </c>
       <c r="G23" t="n">
         <v>19.91160379126067</v>
@@ -5989,19 +5989,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J23" t="n">
-        <v>36.158773413422</v>
+        <v>139.0112959740521</v>
       </c>
       <c r="K23" t="n">
-        <v>111.2475872787747</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L23" t="n">
-        <v>241.3036625438001</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M23" t="n">
-        <v>417.6855428431519</v>
+        <v>520.538065403782</v>
       </c>
       <c r="N23" t="n">
-        <v>664.0916397600026</v>
+        <v>704.3877973067888</v>
       </c>
       <c r="O23" t="n">
         <v>864.6566245307368</v>
@@ -6013,28 +6013,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R23" t="n">
-        <v>995.5801895630334</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="S23" t="n">
-        <v>995.5801895630334</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="T23" t="n">
-        <v>995.5801895630334</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="U23" t="n">
-        <v>744.1710507844896</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="V23" t="n">
-        <v>744.1710507844896</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="W23" t="n">
-        <v>744.1710507844896</v>
+        <v>834.2330489061198</v>
       </c>
       <c r="X23" t="n">
-        <v>744.1710507844896</v>
+        <v>582.823910127576</v>
       </c>
       <c r="Y23" t="n">
-        <v>492.7619120059458</v>
+        <v>331.4147713490322</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>328.5592518140028</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="C24" t="n">
-        <v>328.5592518140028</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="D24" t="n">
-        <v>328.5592518140028</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="E24" t="n">
-        <v>328.5592518140028</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="F24" t="n">
-        <v>305.6201181125773</v>
+        <v>204.3943433159342</v>
       </c>
       <c r="G24" t="n">
-        <v>168.1466434042923</v>
+        <v>66.92086860764923</v>
       </c>
       <c r="H24" t="n">
         <v>66.92086860764923</v>
@@ -6068,22 +6068,22 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J24" t="n">
-        <v>92.317233342447</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K24" t="n">
-        <v>154.8483869327731</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L24" t="n">
-        <v>285.2517809137713</v>
+        <v>328.8488542984376</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6578778306221</v>
+        <v>500.3803325157962</v>
       </c>
       <c r="N24" t="n">
-        <v>722.1379287842983</v>
+        <v>690.8603834694725</v>
       </c>
       <c r="O24" t="n">
-        <v>874.1701669096766</v>
+        <v>842.8926215948508</v>
       </c>
       <c r="P24" t="n">
         <v>976.8563751608905</v>
@@ -6101,19 +6101,19 @@
         <v>995.5801895630334</v>
       </c>
       <c r="U24" t="n">
-        <v>995.5801895630334</v>
+        <v>837.4901482993357</v>
       </c>
       <c r="V24" t="n">
-        <v>995.5801895630334</v>
+        <v>602.3380400675929</v>
       </c>
       <c r="W24" t="n">
-        <v>744.1710507844896</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="X24" t="n">
-        <v>536.3195505789568</v>
+        <v>350.9289012890492</v>
       </c>
       <c r="Y24" t="n">
-        <v>328.5592518140028</v>
+        <v>350.9289012890492</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>267.0178117014577</v>
+        <v>174.405344204862</v>
       </c>
       <c r="C25" t="n">
-        <v>267.0178117014577</v>
+        <v>174.405344204862</v>
       </c>
       <c r="D25" t="n">
-        <v>267.0178117014577</v>
+        <v>174.405344204862</v>
       </c>
       <c r="E25" t="n">
-        <v>166.801551289171</v>
+        <v>174.405344204862</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91160379126067</v>
+        <v>174.405344204862</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91160379126067</v>
+        <v>174.405344204862</v>
       </c>
       <c r="H25" t="n">
         <v>19.91160379126067</v>
@@ -6150,7 +6150,7 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K25" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L25" t="n">
         <v>298.8117097895529</v>
@@ -6174,25 +6174,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S25" t="n">
-        <v>995.5801895630334</v>
+        <v>787.671244744147</v>
       </c>
       <c r="T25" t="n">
-        <v>769.8360892585454</v>
+        <v>787.671244744147</v>
       </c>
       <c r="U25" t="n">
-        <v>518.4269504800016</v>
+        <v>787.671244744147</v>
       </c>
       <c r="V25" t="n">
-        <v>267.0178117014577</v>
+        <v>536.2621059656032</v>
       </c>
       <c r="W25" t="n">
-        <v>267.0178117014577</v>
+        <v>402.3948951028793</v>
       </c>
       <c r="X25" t="n">
-        <v>267.0178117014577</v>
+        <v>174.405344204862</v>
       </c>
       <c r="Y25" t="n">
-        <v>267.0178117014577</v>
+        <v>174.405344204862</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>780.5178886086835</v>
+        <v>492.7619120059458</v>
       </c>
       <c r="C26" t="n">
-        <v>780.5178886086835</v>
+        <v>241.352773227402</v>
       </c>
       <c r="D26" t="n">
-        <v>780.5178886086835</v>
+        <v>241.352773227402</v>
       </c>
       <c r="E26" t="n">
-        <v>780.5178886086835</v>
+        <v>241.352773227402</v>
       </c>
       <c r="F26" t="n">
-        <v>529.1087498301397</v>
+        <v>241.352773227402</v>
       </c>
       <c r="G26" t="n">
-        <v>277.6996110515959</v>
+        <v>241.352773227402</v>
       </c>
       <c r="H26" t="n">
-        <v>26.29047227305207</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I26" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J26" t="n">
-        <v>76.45493096020816</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K26" t="n">
-        <v>151.5437448255609</v>
+        <v>111.2475872787747</v>
       </c>
       <c r="L26" t="n">
-        <v>281.5998200905863</v>
+        <v>241.3036625438001</v>
       </c>
       <c r="M26" t="n">
-        <v>457.9817003899381</v>
+        <v>417.6855428431519</v>
       </c>
       <c r="N26" t="n">
-        <v>704.3877973067888</v>
+        <v>664.0916397600026</v>
       </c>
       <c r="O26" t="n">
         <v>864.6566245307368</v>
@@ -6256,22 +6256,22 @@
         <v>995.5801895630334</v>
       </c>
       <c r="T26" t="n">
-        <v>780.5178886086835</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U26" t="n">
-        <v>780.5178886086835</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="V26" t="n">
-        <v>780.5178886086835</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="W26" t="n">
-        <v>780.5178886086835</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="X26" t="n">
-        <v>780.5178886086835</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="Y26" t="n">
-        <v>780.5178886086835</v>
+        <v>744.1710507844896</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J27" t="n">
-        <v>36.39118737927248</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K27" t="n">
-        <v>98.92234096959862</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L27" t="n">
-        <v>229.3257349505968</v>
+        <v>212.846151362585</v>
       </c>
       <c r="M27" t="n">
-        <v>475.7318318674476</v>
+        <v>384.3776295799436</v>
       </c>
       <c r="N27" t="n">
-        <v>722.1379287842983</v>
+        <v>574.8576805336198</v>
       </c>
       <c r="O27" t="n">
-        <v>874.1701669096766</v>
+        <v>726.8899186589981</v>
       </c>
       <c r="P27" t="n">
-        <v>976.8563751608905</v>
+        <v>973.2960155758489</v>
       </c>
       <c r="Q27" t="n">
         <v>995.5801895630334</v>
@@ -6332,25 +6332,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S27" t="n">
-        <v>995.5801895630334</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="T27" t="n">
-        <v>995.5801895630334</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="U27" t="n">
-        <v>922.084649772034</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="V27" t="n">
-        <v>686.9325415402913</v>
+        <v>647.2963783548264</v>
       </c>
       <c r="W27" t="n">
-        <v>435.5234027617474</v>
+        <v>395.8872395762826</v>
       </c>
       <c r="X27" t="n">
-        <v>227.6719025562146</v>
+        <v>395.8872395762826</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.91160379126067</v>
+        <v>188.1269408113287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>593.1391455892636</v>
+        <v>813.9317247327937</v>
       </c>
       <c r="C28" t="n">
-        <v>424.2029626613568</v>
+        <v>644.9955418048868</v>
       </c>
       <c r="D28" t="n">
-        <v>274.086323249021</v>
+        <v>494.878902392551</v>
       </c>
       <c r="E28" t="n">
-        <v>274.086323249021</v>
+        <v>346.9658088101579</v>
       </c>
       <c r="F28" t="n">
-        <v>127.1963757511107</v>
+        <v>200.0758613122476</v>
       </c>
       <c r="G28" t="n">
-        <v>127.1963757511107</v>
+        <v>31.44212397177174</v>
       </c>
       <c r="H28" t="n">
-        <v>19.91160379126067</v>
+        <v>31.44212397177174</v>
       </c>
       <c r="I28" t="n">
         <v>19.91160379126067</v>
@@ -6387,49 +6387,49 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K28" t="n">
-        <v>117.8973084810499</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L28" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M28" t="n">
-        <v>499.9497029930581</v>
+        <v>499.9497029930579</v>
       </c>
       <c r="N28" t="n">
-        <v>701.7397007055569</v>
+        <v>701.7397007055567</v>
       </c>
       <c r="O28" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361197</v>
       </c>
       <c r="P28" t="n">
-        <v>994.368924415562</v>
+        <v>994.3689244155619</v>
       </c>
       <c r="Q28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="R28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="V28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="W28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="X28" t="n">
-        <v>995.5801895630335</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="Y28" t="n">
-        <v>774.7876104195034</v>
+        <v>995.5801895630334</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="C29" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="D29" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="E29" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="F29" t="n">
-        <v>19.91160379126067</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="G29" t="n">
         <v>19.91160379126067</v>
@@ -6463,10 +6463,10 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J29" t="n">
-        <v>139.0112959740521</v>
+        <v>36.158773413422</v>
       </c>
       <c r="K29" t="n">
-        <v>214.1001098394048</v>
+        <v>111.2475872787747</v>
       </c>
       <c r="L29" t="n">
         <v>344.1561851044302</v>
@@ -6493,22 +6493,22 @@
         <v>991.8142391843265</v>
       </c>
       <c r="T29" t="n">
-        <v>776.7519382299766</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U29" t="n">
-        <v>525.3427994514328</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V29" t="n">
-        <v>273.933660672889</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="W29" t="n">
-        <v>22.52452189434521</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="X29" t="n">
-        <v>19.91160379126067</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.91160379126067</v>
+        <v>522.7298813483483</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133.043306767725</v>
+        <v>345.0007219977995</v>
       </c>
       <c r="C30" t="n">
-        <v>133.043306767725</v>
+        <v>345.0007219977995</v>
       </c>
       <c r="D30" t="n">
-        <v>133.043306767725</v>
+        <v>196.0663123365483</v>
       </c>
       <c r="E30" t="n">
-        <v>133.043306767725</v>
+        <v>36.82885733109276</v>
       </c>
       <c r="F30" t="n">
         <v>19.91160379126067</v>
@@ -6542,52 +6542,52 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J30" t="n">
-        <v>135.6005847439773</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K30" t="n">
-        <v>198.1317383343035</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L30" t="n">
-        <v>328.5351323153017</v>
+        <v>212.846151362585</v>
       </c>
       <c r="M30" t="n">
-        <v>500.0666105326603</v>
+        <v>384.3776295799436</v>
       </c>
       <c r="N30" t="n">
-        <v>690.5466614863366</v>
+        <v>630.7837264967943</v>
       </c>
       <c r="O30" t="n">
-        <v>842.5788996117149</v>
+        <v>782.8159646221726</v>
       </c>
       <c r="P30" t="n">
-        <v>945.2651078629287</v>
+        <v>976.8563751608905</v>
       </c>
       <c r="Q30" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R30" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="S30" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="T30" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="U30" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="V30" t="n">
-        <v>760.4280813312907</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="W30" t="n">
-        <v>509.0189425527469</v>
+        <v>721.0675592234004</v>
       </c>
       <c r="X30" t="n">
-        <v>509.0189425527469</v>
+        <v>513.2160590178676</v>
       </c>
       <c r="Y30" t="n">
-        <v>301.258643787793</v>
+        <v>513.2160590178676</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.1109210303465</v>
+        <v>188.8477867191676</v>
       </c>
       <c r="C31" t="n">
-        <v>246.1747381024396</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D31" t="n">
-        <v>96.05809869010386</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E31" t="n">
         <v>19.91160379126067</v>
@@ -6624,19 +6624,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.8973084810498</v>
+        <v>117.89730848105</v>
       </c>
       <c r="L31" t="n">
-        <v>298.8117097895528</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M31" t="n">
-        <v>499.9497029930579</v>
+        <v>499.9497029930581</v>
       </c>
       <c r="N31" t="n">
-        <v>701.7397007055567</v>
+        <v>701.7397007055569</v>
       </c>
       <c r="O31" t="n">
-        <v>872.1091287361197</v>
+        <v>872.1091287361198</v>
       </c>
       <c r="P31" t="n">
         <v>994.3689244155619</v>
@@ -6645,28 +6645,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R31" t="n">
-        <v>863.893051071894</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S31" t="n">
-        <v>863.893051071894</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T31" t="n">
-        <v>863.893051071894</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U31" t="n">
-        <v>863.893051071894</v>
+        <v>873.3145291064949</v>
       </c>
       <c r="V31" t="n">
-        <v>863.893051071894</v>
+        <v>621.9053903279511</v>
       </c>
       <c r="W31" t="n">
-        <v>863.893051071894</v>
+        <v>370.4962515494072</v>
       </c>
       <c r="X31" t="n">
-        <v>635.9035001738766</v>
+        <v>370.4962515494072</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.1109210303465</v>
+        <v>370.4962515494072</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>780.5178886086835</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="C32" t="n">
-        <v>780.5178886086835</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="D32" t="n">
-        <v>529.1087498301397</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="E32" t="n">
-        <v>529.1087498301397</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="F32" t="n">
-        <v>277.6996110515959</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G32" t="n">
-        <v>277.6996110515959</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H32" t="n">
-        <v>26.29047227305207</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I32" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J32" t="n">
-        <v>36.158773413422</v>
+        <v>139.0112959740521</v>
       </c>
       <c r="K32" t="n">
-        <v>111.2475872787747</v>
+        <v>214.1001098394048</v>
       </c>
       <c r="L32" t="n">
-        <v>241.3036625438001</v>
+        <v>344.1561851044302</v>
       </c>
       <c r="M32" t="n">
-        <v>417.6855428431519</v>
+        <v>520.538065403782</v>
       </c>
       <c r="N32" t="n">
-        <v>601.5352747461586</v>
+        <v>704.3877973067888</v>
       </c>
       <c r="O32" t="n">
-        <v>761.8041019701067</v>
+        <v>864.6566245307368</v>
       </c>
       <c r="P32" t="n">
-        <v>864.088837196426</v>
+        <v>966.9413597570561</v>
       </c>
       <c r="Q32" t="n">
         <v>995.5801895630334</v>
@@ -6727,25 +6727,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S32" t="n">
-        <v>995.5801895630334</v>
+        <v>837.9989992848266</v>
       </c>
       <c r="T32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
       <c r="U32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
       <c r="V32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
       <c r="W32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
       <c r="X32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
       <c r="Y32" t="n">
-        <v>780.5178886086835</v>
+        <v>622.9366983304767</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="C33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="D33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="E33" t="n">
-        <v>159.6741090246235</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="F33" t="n">
-        <v>159.6741090246235</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="G33" t="n">
-        <v>22.20063431633861</v>
+        <v>121.1373785879038</v>
       </c>
       <c r="H33" t="n">
-        <v>22.20063431633861</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I33" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J33" t="n">
-        <v>135.6005847439773</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K33" t="n">
-        <v>198.1317383343035</v>
+        <v>82.4427573815868</v>
       </c>
       <c r="L33" t="n">
-        <v>328.5351323153017</v>
+        <v>212.846151362585</v>
       </c>
       <c r="M33" t="n">
-        <v>500.0666105326603</v>
+        <v>384.3776295799436</v>
       </c>
       <c r="N33" t="n">
-        <v>722.1379287842983</v>
+        <v>574.8576805336198</v>
       </c>
       <c r="O33" t="n">
-        <v>874.1701669096766</v>
+        <v>726.8899186589981</v>
       </c>
       <c r="P33" t="n">
-        <v>976.8563751608905</v>
+        <v>829.576126910212</v>
       </c>
       <c r="Q33" t="n">
         <v>995.5801895630334</v>
@@ -6815,16 +6815,16 @@
         <v>570.3207028086229</v>
       </c>
       <c r="V33" t="n">
-        <v>570.3207028086229</v>
+        <v>335.1685945768801</v>
       </c>
       <c r="W33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="X33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.911564030079</v>
+        <v>258.6108532961887</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="J34" t="n">
-        <v>19.91160379126059</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="K34" t="n">
-        <v>117.8973084810498</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L34" t="n">
-        <v>298.8117097895528</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M34" t="n">
-        <v>499.9497029930579</v>
+        <v>499.9497029930581</v>
       </c>
       <c r="N34" t="n">
-        <v>701.7397007055567</v>
+        <v>701.7397007055569</v>
       </c>
       <c r="O34" t="n">
-        <v>872.1091287361197</v>
+        <v>872.1091287361198</v>
       </c>
       <c r="P34" t="n">
-        <v>994.3689244155619</v>
+        <v>994.368924415562</v>
       </c>
       <c r="Q34" t="n">
-        <v>995.5801895630334</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="R34" t="n">
-        <v>995.5801895630334</v>
+        <v>863.8930510718941</v>
       </c>
       <c r="S34" t="n">
-        <v>995.5801895630334</v>
+        <v>655.9841062530077</v>
       </c>
       <c r="T34" t="n">
-        <v>995.5801895630334</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="U34" t="n">
-        <v>995.5801895630334</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="V34" t="n">
-        <v>744.1710507844896</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="W34" t="n">
-        <v>492.7619120059458</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="X34" t="n">
-        <v>264.7723611079284</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.97978196439831</v>
+        <v>19.91160379126067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="C35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="D35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="E35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I35" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075603</v>
+        <v>34.05974234075562</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061087</v>
+        <v>109.1485562061083</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711338</v>
+        <v>239.2046314711337</v>
       </c>
       <c r="M35" t="n">
         <v>415.5865117704855</v>
       </c>
       <c r="N35" t="n">
-        <v>599.4362436734921</v>
+        <v>599.4362436734923</v>
       </c>
       <c r="O35" t="n">
-        <v>759.7050708974402</v>
+        <v>759.7050708974404</v>
       </c>
       <c r="P35" t="n">
-        <v>861.9898061237594</v>
+        <v>861.9898061237596</v>
       </c>
       <c r="Q35" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R35" t="n">
-        <v>890.6286359297367</v>
+        <v>886.86268555103</v>
       </c>
       <c r="S35" t="n">
-        <v>890.6286359297367</v>
+        <v>886.86268555103</v>
       </c>
       <c r="T35" t="n">
-        <v>890.6286359297367</v>
+        <v>671.8003845966801</v>
       </c>
       <c r="U35" t="n">
-        <v>890.6286359297367</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="V35" t="n">
-        <v>665.7224147353587</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="W35" t="n">
-        <v>440.8161935409807</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X35" t="n">
-        <v>215.9099723466028</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.81257271859473</v>
+        <v>242.7187939129728</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>711.2182448633446</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C36" t="n">
-        <v>711.2182448633446</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D36" t="n">
-        <v>562.2838352020933</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E36" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F36" t="n">
-        <v>256.5118222235228</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G36" t="n">
-        <v>119.0383475152379</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H36" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I36" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J36" t="n">
-        <v>17.81257271859473</v>
+        <v>62.24029840864262</v>
       </c>
       <c r="K36" t="n">
-        <v>80.34372630892088</v>
+        <v>124.7714519989688</v>
       </c>
       <c r="L36" t="n">
-        <v>210.7471202899191</v>
+        <v>255.1748459799669</v>
       </c>
       <c r="M36" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973256</v>
       </c>
       <c r="N36" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510018</v>
       </c>
       <c r="O36" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763801</v>
       </c>
       <c r="P36" t="n">
-        <v>827.4770958375461</v>
+        <v>871.904821527594</v>
       </c>
       <c r="Q36" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R36" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S36" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T36" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U36" t="n">
-        <v>890.6286359297367</v>
+        <v>665.7224147353588</v>
       </c>
       <c r="V36" t="n">
-        <v>890.6286359297367</v>
+        <v>440.8161935409808</v>
       </c>
       <c r="W36" t="n">
-        <v>711.2182448633446</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X36" t="n">
-        <v>711.2182448633446</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y36" t="n">
-        <v>711.2182448633446</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>334.5950355334493</v>
+        <v>651.1418664563182</v>
       </c>
       <c r="C37" t="n">
-        <v>334.5950355334493</v>
+        <v>651.1418664563182</v>
       </c>
       <c r="D37" t="n">
-        <v>184.4783961211136</v>
+        <v>501.0252270439825</v>
       </c>
       <c r="E37" t="n">
-        <v>184.4783961211136</v>
+        <v>353.1121334615893</v>
       </c>
       <c r="F37" t="n">
-        <v>37.58844862320321</v>
+        <v>206.222185963679</v>
       </c>
       <c r="G37" t="n">
         <v>37.58844862320321</v>
@@ -7095,7 +7095,7 @@
         <v>37.58844862320321</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81257271859473</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K37" t="n">
         <v>115.7982774083839</v>
@@ -7104,43 +7104,43 @@
         <v>296.7126787168869</v>
       </c>
       <c r="M37" t="n">
-        <v>497.8506719203921</v>
+        <v>394.9981493597614</v>
       </c>
       <c r="N37" t="n">
-        <v>699.6406696328909</v>
+        <v>596.7881470722602</v>
       </c>
       <c r="O37" t="n">
-        <v>870.0100976634538</v>
+        <v>767.1575751028232</v>
       </c>
       <c r="P37" t="n">
-        <v>889.4173707822652</v>
+        <v>889.4173707822654</v>
       </c>
       <c r="Q37" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="R37" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="S37" t="n">
-        <v>890.6286359297367</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="T37" t="n">
-        <v>737.0360795072191</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="U37" t="n">
-        <v>737.0360795072191</v>
+        <v>876.0480876506963</v>
       </c>
       <c r="V37" t="n">
-        <v>737.0360795072191</v>
+        <v>651.1418664563182</v>
       </c>
       <c r="W37" t="n">
-        <v>737.0360795072191</v>
+        <v>651.1418664563182</v>
       </c>
       <c r="X37" t="n">
-        <v>737.0360795072191</v>
+        <v>651.1418664563182</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.243500363689</v>
+        <v>651.1418664563182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>886.86268555103</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="C38" t="n">
-        <v>886.86268555103</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="D38" t="n">
-        <v>886.86268555103</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="E38" t="n">
-        <v>814.5355005871706</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="F38" t="n">
-        <v>589.6292793927926</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G38" t="n">
-        <v>364.7230581984146</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H38" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I38" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K38" t="n">
         <v>109.1485562061088</v>
@@ -7183,43 +7183,43 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M38" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N38" t="n">
-        <v>599.4362436734922</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P38" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q38" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R38" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="T38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="U38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="V38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="W38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="X38" t="n">
-        <v>886.86268555103</v>
+        <v>729.2814952728233</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.86268555103</v>
+        <v>504.3752740784453</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>341.200011660973</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C39" t="n">
-        <v>166.746982379846</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D39" t="n">
         <v>17.81257271859474</v>
@@ -7271,34 +7271,34 @@
         <v>724.7908875863322</v>
       </c>
       <c r="P39" t="n">
-        <v>871.904821527594</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q39" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R39" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="S39" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="T39" t="n">
-        <v>717.175647445995</v>
+        <v>867.5251443686478</v>
       </c>
       <c r="U39" t="n">
-        <v>717.175647445995</v>
+        <v>642.6189231742698</v>
       </c>
       <c r="V39" t="n">
-        <v>717.175647445995</v>
+        <v>417.7127019798917</v>
       </c>
       <c r="W39" t="n">
-        <v>717.175647445995</v>
+        <v>225.6640729241276</v>
       </c>
       <c r="X39" t="n">
-        <v>717.175647445995</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y39" t="n">
-        <v>509.4153486810411</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>631.6684361391408</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="C40" t="n">
-        <v>462.7322532112339</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="D40" t="n">
-        <v>312.6156137988982</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="E40" t="n">
-        <v>164.7025202165051</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="F40" t="n">
-        <v>17.81257271859474</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="G40" t="n">
-        <v>17.81257271859474</v>
+        <v>172.306313132196</v>
       </c>
       <c r="H40" t="n">
         <v>17.81257271859474</v>
@@ -7335,49 +7335,49 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K40" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L40" t="n">
-        <v>296.7126787168869</v>
+        <v>193.8601561562564</v>
       </c>
       <c r="M40" t="n">
-        <v>497.8506719203921</v>
+        <v>394.9981493597616</v>
       </c>
       <c r="N40" t="n">
-        <v>699.6406696328909</v>
+        <v>596.7881470722604</v>
       </c>
       <c r="O40" t="n">
-        <v>870.0100976634538</v>
+        <v>767.1575751028233</v>
       </c>
       <c r="P40" t="n">
-        <v>889.4173707822654</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q40" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="R40" t="n">
-        <v>890.6286359297369</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S40" t="n">
-        <v>890.6286359297369</v>
+        <v>790.752492861428</v>
       </c>
       <c r="T40" t="n">
-        <v>890.6286359297369</v>
+        <v>565.8462716670499</v>
       </c>
       <c r="U40" t="n">
-        <v>665.7224147353588</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="V40" t="n">
-        <v>631.6684361391408</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="W40" t="n">
-        <v>631.6684361391408</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="X40" t="n">
-        <v>631.6684361391408</v>
+        <v>340.9400504726718</v>
       </c>
       <c r="Y40" t="n">
-        <v>631.6684361391408</v>
+        <v>340.9400504726718</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="C41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="D41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="E41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="F41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="G41" t="n">
-        <v>364.7230581984146</v>
+        <v>212.144021967896</v>
       </c>
       <c r="H41" t="n">
-        <v>139.8168370040366</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I41" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K41" t="n">
         <v>109.1485562061088</v>
@@ -7420,13 +7420,13 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M41" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N41" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974408</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P41" t="n">
         <v>861.9898061237598</v>
@@ -7447,16 +7447,16 @@
         <v>661.9564643566521</v>
       </c>
       <c r="V41" t="n">
-        <v>661.9564643566521</v>
+        <v>437.050243162274</v>
       </c>
       <c r="W41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="X41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
       <c r="Y41" t="n">
-        <v>437.050243162274</v>
+        <v>212.144021967896</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.6281900181491</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C42" t="n">
         <v>17.81257271859474</v>
@@ -7520,22 +7520,22 @@
         <v>890.628635929737</v>
       </c>
       <c r="T42" t="n">
-        <v>693.5100469975491</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U42" t="n">
-        <v>468.603825803171</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="V42" t="n">
-        <v>468.603825803171</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W42" t="n">
-        <v>468.603825803171</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X42" t="n">
-        <v>468.603825803171</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y42" t="n">
-        <v>260.8435270382171</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.6684361391408</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="C43" t="n">
-        <v>462.7322532112339</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="D43" t="n">
-        <v>312.6156137988982</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="E43" t="n">
-        <v>164.7025202165051</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="F43" t="n">
-        <v>17.81257271859474</v>
+        <v>186.4463100590706</v>
       </c>
       <c r="G43" t="n">
         <v>17.81257271859474</v>
@@ -7575,46 +7575,46 @@
         <v>17.81257271859474</v>
       </c>
       <c r="L43" t="n">
-        <v>198.7269740270977</v>
+        <v>195.0714213037279</v>
       </c>
       <c r="M43" t="n">
-        <v>399.8649672306029</v>
+        <v>396.2094145072331</v>
       </c>
       <c r="N43" t="n">
-        <v>601.6549649431017</v>
+        <v>597.9994122197319</v>
       </c>
       <c r="O43" t="n">
-        <v>772.0243929736647</v>
+        <v>768.3688402502949</v>
       </c>
       <c r="P43" t="n">
-        <v>889.4173707822655</v>
+        <v>890.628635929737</v>
       </c>
       <c r="Q43" t="n">
         <v>890.628635929737</v>
       </c>
       <c r="R43" t="n">
-        <v>890.628635929737</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="S43" t="n">
-        <v>890.628635929737</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="T43" t="n">
-        <v>890.628635929737</v>
+        <v>534.0352762442195</v>
       </c>
       <c r="U43" t="n">
-        <v>890.628635929737</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="V43" t="n">
-        <v>890.628635929737</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="W43" t="n">
-        <v>890.628635929737</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="X43" t="n">
-        <v>890.628635929737</v>
+        <v>309.1290550498414</v>
       </c>
       <c r="Y43" t="n">
-        <v>813.3169009693805</v>
+        <v>309.1290550498414</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="C44" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="D44" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="E44" t="n">
+        <v>467.6250151073508</v>
+      </c>
+      <c r="F44" t="n">
         <v>242.7187939129728</v>
-      </c>
-      <c r="C44" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="D44" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="E44" t="n">
-        <v>17.81257271859474</v>
-      </c>
-      <c r="F44" t="n">
-        <v>17.81257271859474</v>
       </c>
       <c r="G44" t="n">
         <v>17.81257271859474</v>
@@ -7648,7 +7648,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J44" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K44" t="n">
         <v>109.1485562061088</v>
@@ -7657,16 +7657,16 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M44" t="n">
-        <v>415.5865117704858</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N44" t="n">
-        <v>599.4362436734924</v>
+        <v>599.4362436734928</v>
       </c>
       <c r="O44" t="n">
-        <v>759.7050708974406</v>
+        <v>759.7050708974408</v>
       </c>
       <c r="P44" t="n">
-        <v>861.9898061237598</v>
+        <v>861.9898061237601</v>
       </c>
       <c r="Q44" t="n">
         <v>890.628635929737</v>
@@ -7681,19 +7681,19 @@
         <v>890.628635929737</v>
       </c>
       <c r="U44" t="n">
-        <v>890.628635929737</v>
+        <v>692.5312363017289</v>
       </c>
       <c r="V44" t="n">
-        <v>890.628635929737</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="W44" t="n">
-        <v>890.628635929737</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="X44" t="n">
-        <v>665.7224147353589</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="Y44" t="n">
-        <v>440.8161935409809</v>
+        <v>467.6250151073508</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>192.2656019997218</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C45" t="n">
         <v>17.81257271859474</v>
@@ -7733,46 +7733,46 @@
         <v>80.34372630892088</v>
       </c>
       <c r="L45" t="n">
-        <v>210.7471202899191</v>
+        <v>255.174845979967</v>
       </c>
       <c r="M45" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973257</v>
       </c>
       <c r="N45" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510019</v>
       </c>
       <c r="O45" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763802</v>
       </c>
       <c r="P45" t="n">
-        <v>827.4770958375461</v>
+        <v>871.9048215275941</v>
       </c>
       <c r="Q45" t="n">
         <v>890.628635929737</v>
       </c>
       <c r="R45" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S45" t="n">
-        <v>849.8383431534318</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T45" t="n">
-        <v>849.8383431534318</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U45" t="n">
-        <v>624.9321219590537</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="V45" t="n">
-        <v>624.9321219590537</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W45" t="n">
-        <v>400.0259007646757</v>
+        <v>215.9099723466028</v>
       </c>
       <c r="X45" t="n">
-        <v>400.0259007646757</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y45" t="n">
-        <v>192.2656019997218</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.22283385546339</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="C46" t="n">
-        <v>84.22283385546339</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="D46" t="n">
-        <v>84.22283385546339</v>
+        <v>290.6995541286451</v>
       </c>
       <c r="E46" t="n">
-        <v>84.22283385546339</v>
+        <v>290.6995541286451</v>
       </c>
       <c r="F46" t="n">
-        <v>84.22283385546339</v>
+        <v>143.8096066307347</v>
       </c>
       <c r="G46" t="n">
         <v>17.81257271859474</v>
@@ -7815,13 +7815,13 @@
         <v>296.7126787168869</v>
       </c>
       <c r="M46" t="n">
-        <v>396.2094145072331</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N46" t="n">
-        <v>597.9994122197319</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O46" t="n">
-        <v>768.3688402502949</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P46" t="n">
         <v>890.628635929737</v>
@@ -7830,28 +7830,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R46" t="n">
-        <v>758.9414974385976</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S46" t="n">
-        <v>758.9414974385976</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T46" t="n">
-        <v>534.0352762442195</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="U46" t="n">
-        <v>534.0352762442195</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="V46" t="n">
-        <v>309.1290550498414</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W46" t="n">
-        <v>84.22283385546339</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="X46" t="n">
-        <v>84.22283385546339</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.22283385546339</v>
+        <v>440.8161935409809</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>54.10996941852118</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.87649059600794</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8859,16 +8859,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>67.92627991453186</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>32.33862653307233</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>54.10996941852147</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>44.87649059600795</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>7.768307062037195</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,10 +9102,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>130.0905856667266</v>
+        <v>131.3140858156876</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>9.23347882251322</v>
+        <v>54.10996941852118</v>
       </c>
       <c r="K18" t="n">
-        <v>44.87649059600795</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>54.10996941852118</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>44.87649059600794</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,10 +9561,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>158.782224043201</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9576,7 +9576,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>32.33862653307233</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>64.11945822879035</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>103.8914369299294</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>63.18824748873129</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>40.70318944119811</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>82.37047836916608</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>117.1744474099521</v>
       </c>
       <c r="M24" t="n">
-        <v>75.63092797928499</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>31.59348011598564</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.70318944119814</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>63.18824748873129</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>40.70318944119811</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>25.87952285080798</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>75.63092797928499</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>56.49095551835808</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>145.1716047127645</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>3.596322813173369</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>103.8914369299294</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>56.49095551835811</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>92.27697200757976</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.91037100804217</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>103.8914369299294</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>103.8914369299295</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>31.91037100804218</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>148.7679275259379</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>9.23347882251322</v>
+        <v>54.10996941852118</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.87649059600771</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,7 +10752,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>74.61822397951575</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>31.11512638411097</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>44.8764905960079</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>44.87649059600805</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,10 +10983,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>157.55872389424</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>31.11512638411119</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11223,7 +11223,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>158.7822240432011</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
@@ -11235,10 +11235,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>130.0905856667266</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.87649059600807</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.87649059600805</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11463,7 +11463,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>75.84172412847698</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
         <v>171.8177168444618</v>
@@ -11472,7 +11472,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>32.33862653307244</v>
       </c>
       <c r="Q46" t="n">
         <v>64.11945822879035</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H11" t="n">
         <v>315.6487261371466</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T11" t="n">
-        <v>16.79525231307835</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U11" t="n">
         <v>28.50237542636265</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>156.8528339606047</v>
       </c>
       <c r="X11" t="n">
-        <v>147.0739416960348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>140.1271619312584</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>139.2823814731576</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566341</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699104</v>
       </c>
       <c r="W12" t="n">
-        <v>29.03782417848538</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H13" t="n">
-        <v>106.9524737330716</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I13" t="n">
         <v>124.0671965026173</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.829500319008929</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2621068442334</v>
+        <v>69.24587197042922</v>
       </c>
       <c r="V13" t="n">
-        <v>29.48048434139378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>3.052496406602927</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>172.8847570141995</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>132.0258826382487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H14" t="n">
         <v>315.6487261371466</v>
       </c>
       <c r="I14" t="n">
-        <v>120.7842216425875</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S14" t="n">
         <v>156.0053783754247</v>
@@ -23554,16 +23554,16 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>173.6146750467411</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.5807796736194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>14.50160002030464</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>46.53917216822467</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.87245664547835</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S15" t="n">
         <v>148.5619805314415</v>
@@ -23636,10 +23636,10 @@
         <v>10.14342816699104</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>139.0907745322246</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2367933310644</v>
       </c>
       <c r="G16" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J16" t="n">
-        <v>19.5781171455624</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>223.4866593014432</v>
       </c>
       <c r="U16" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V16" t="n">
-        <v>110.3800582217483</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>63.86583935415678</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>172.8847570141993</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>132.0258826382487</v>
       </c>
       <c r="E17" t="n">
         <v>159.2732110898276</v>
       </c>
       <c r="F17" t="n">
-        <v>184.2188867592772</v>
+        <v>360.7478083227</v>
       </c>
       <c r="G17" t="n">
-        <v>190.3190972947054</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H17" t="n">
         <v>315.6487261371466</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1595344087969</v>
@@ -23813,16 +23813,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.0987399612021</v>
@@ -23867,19 +23867,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>218.5415852106203</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V18" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>29.03782417848538</v>
+        <v>68.80285762246692</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H19" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>19.57811714556239</v>
@@ -23940,16 +23940,16 @@
         <v>130.370267106228</v>
       </c>
       <c r="S19" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>210.2866578116891</v>
+        <v>64.90177058762671</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179913</v>
       </c>
       <c r="V19" t="n">
-        <v>29.48048434139378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7205625559092</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H20" t="n">
-        <v>92.99156715471236</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9116779448064</v>
+        <v>16.79525231307835</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636265</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349788</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24059,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>42.34107382785032</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.202329861566341</v>
+        <v>86.86243924253992</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24113,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.1350720371004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.947399967071</v>
@@ -24147,7 +24147,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I22" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>19.57811714556239</v>
@@ -24183,10 +24183,10 @@
         <v>0.829500319008929</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2621068442334</v>
+        <v>268.7649361620953</v>
       </c>
       <c r="V22" t="n">
-        <v>29.48048434139378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>133.8387942727222</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>146.0461340292277</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>105.7879942299246</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9762562771396</v>
+        <v>353.4831677857042</v>
       </c>
       <c r="H23" t="n">
         <v>315.6487261371466</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U23" t="n">
-        <v>2.264487018038523</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>120.8360532877107</v>
       </c>
       <c r="Y23" t="n">
         <v>137.3428912652952</v>
@@ -24296,13 +24296,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>122.3594700289726</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24341,19 +24341,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8594888440006</v>
+        <v>69.35034799293987</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>2.799935770161255</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>47.21986483840533</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.947399967071</v>
       </c>
       <c r="H25" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>124.0671965026173</v>
@@ -24414,22 +24414,22 @@
         <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U25" t="n">
-        <v>37.36705945347501</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V25" t="n">
         <v>3.242595933069651</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.9944595824944</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>133.8387942727222</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802492</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>157.9809983509531</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>164.0812088863813</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H26" t="n">
-        <v>66.75367874638823</v>
+        <v>96.42196839536669</v>
       </c>
       <c r="I26" t="n">
-        <v>114.4691418456139</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U26" t="n">
         <v>251.1595344087969</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24572,22 +24572,22 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S27" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U27" t="n">
-        <v>153.0989044509112</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>36.56159458474184</v>
       </c>
       <c r="W27" t="n">
         <v>2.799935770161255</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>46.7368787692138</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I28" t="n">
-        <v>124.0671965026173</v>
+        <v>112.6519815239113</v>
       </c>
       <c r="J28" t="n">
         <v>19.57811714556239</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>157.9809983509531</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863813</v>
       </c>
       <c r="H29" t="n">
         <v>315.6487261371466</v>
@@ -24733,22 +24733,22 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U29" t="n">
-        <v>2.264487018038523</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V29" t="n">
-        <v>78.85721107937655</v>
+        <v>112.2537916032748</v>
       </c>
       <c r="W29" t="n">
-        <v>100.3459213266547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>367.1443117564153</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="30">
@@ -24764,13 +24764,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>33.06882644668421</v>
+        <v>128.3211313889501</v>
       </c>
       <c r="G30" t="n">
         <v>136.0987399612021</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>148.5619805314415</v>
@@ -24818,16 +24818,16 @@
         <v>225.8594888440006</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>2.799935770161255</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>71.0489326967144</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
         <v>205.8298553706975</v>
@@ -24894,19 +24894,19 @@
         <v>223.4866593014432</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2621068442334</v>
+        <v>165.2191029922602</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>3.242595933069651</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>37.62795094583265</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>283.5290928511735</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>105.7879942299246</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F32" t="n">
         <v>157.9809983509531</v>
@@ -24934,10 +24934,10 @@
         <v>412.9762562771396</v>
       </c>
       <c r="H32" t="n">
-        <v>66.75367874638823</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I32" t="n">
-        <v>114.4691418456139</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S32" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.2730319483975</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>2.799935770161255</v>
+        <v>175.9028192930351</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.0044837905309</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4866593014432</v>
+        <v>91.56497664583037</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2621068442334</v>
+        <v>37.36705945347501</v>
       </c>
       <c r="V34" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>37.62795094583265</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898276</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1595344087969</v>
+        <v>49.02591861436085</v>
       </c>
       <c r="V35" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0739416960349</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>190.1215130243256</v>
+        <v>163.5807796736194</v>
       </c>
     </row>
     <row r="36">
@@ -25238,19 +25238,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I36" t="n">
         <v>46.53917216822466</v>
@@ -25289,16 +25289,16 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566341</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699104</v>
       </c>
       <c r="W36" t="n">
-        <v>74.07869600519143</v>
+        <v>29.03782417848538</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>9.656559571749511</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.9488030094653</v>
@@ -25365,13 +25365,13 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
-        <v>71.4300284431508</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2621068442334</v>
+        <v>271.8273640479832</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139378</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>346.3510852820971</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885733</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>310.326456958041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>184.2188867592772</v>
       </c>
       <c r="G38" t="n">
-        <v>190.3190972947054</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H38" t="n">
-        <v>92.99156715471236</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.9116779448064</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736193</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>148.5619805314415</v>
       </c>
       <c r="T39" t="n">
-        <v>23.42894444396143</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566312</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>61.56684039571314</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>124.0671965026173</v>
@@ -25599,16 +25599,16 @@
         <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
-        <v>205.8298553706975</v>
+        <v>106.9524737330716</v>
       </c>
       <c r="T40" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U40" t="n">
-        <v>63.60494786179913</v>
+        <v>63.6049478617991</v>
       </c>
       <c r="V40" t="n">
-        <v>218.4242045135722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>341.3723431629188</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H41" t="n">
-        <v>92.99156715471233</v>
+        <v>123.2605913803384</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>28.50237542636262</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W41" t="n">
         <v>126.5838097349788</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>98.64103786175693</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,22 +25760,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
         <v>3.202329861566312</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848535</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>9.656559571749483</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>45.79090355776466</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.9488030094653</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T43" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190089005</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2621068442334</v>
+        <v>63.6049478617991</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0460357413419</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>186.6174160317526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>142.6157327885733</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9762562771396</v>
+        <v>190.3190972947054</v>
       </c>
       <c r="H44" t="n">
         <v>315.6487261371466</v>
@@ -25921,19 +25921,19 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1595344087969</v>
+        <v>55.04310877706882</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>147.0739416960348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5807796736193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S45" t="n">
-        <v>131.0520473283776</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T45" t="n">
         <v>195.1474030428659</v>
@@ -26003,16 +26003,16 @@
         <v>3.202329861566312</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>10.14342816699101</v>
       </c>
       <c r="W45" t="n">
         <v>29.03782417848535</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>9.656559571749483</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>101.2012414415711</v>
+        <v>42.21033639405245</v>
       </c>
       <c r="H46" t="n">
         <v>152.9488030094653</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
         <v>205.8298553706975</v>
@@ -26079,13 +26079,13 @@
         <v>0.8295003190089005</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2621068442334</v>
+        <v>63.6049478617991</v>
       </c>
       <c r="V46" t="n">
-        <v>29.48048434139375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>63.86583935415675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415463.6494143604</v>
+        <v>415463.6494143605</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415463.6494143603</v>
+        <v>415463.6494143605</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415463.6494143604</v>
+        <v>415463.6494143605</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>437519.7318673217</v>
+        <v>437519.7318673218</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>437519.7318673219</v>
+        <v>437519.7318673218</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>437519.7318673217</v>
+        <v>437519.7318673218</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415463.6494143605</v>
+        <v>415463.6494143604</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415463.6494143605</v>
+        <v>415463.6494143604</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.4371019271</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.437101927</v>
       </c>
       <c r="D2" t="n">
         <v>573493.437101927</v>
@@ -26325,10 +26325,10 @@
         <v>267968.8533859961</v>
       </c>
       <c r="F2" t="n">
-        <v>267968.853385996</v>
+        <v>267968.8533859961</v>
       </c>
       <c r="G2" t="n">
-        <v>267968.8533859961</v>
+        <v>267968.8533859962</v>
       </c>
       <c r="H2" t="n">
         <v>267968.8533859961</v>
@@ -26337,22 +26337,22 @@
         <v>278375.2659136357</v>
       </c>
       <c r="J2" t="n">
+        <v>278375.2659136357</v>
+      </c>
+      <c r="K2" t="n">
         <v>278375.2659136356</v>
-      </c>
-      <c r="K2" t="n">
-        <v>278375.2659136358</v>
       </c>
       <c r="L2" t="n">
         <v>278375.2659136356</v>
       </c>
       <c r="M2" t="n">
+        <v>267968.8533859962</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267968.8533859962</v>
+      </c>
+      <c r="O2" t="n">
         <v>267968.8533859961</v>
-      </c>
-      <c r="N2" t="n">
-        <v>267968.8533859961</v>
-      </c>
-      <c r="O2" t="n">
-        <v>267968.8533859962</v>
       </c>
       <c r="P2" t="n">
         <v>267968.8533859962</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6977.20552342996</v>
+        <v>6977.205523429967</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415047</v>
+        <v>48948.46790415057</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>13703.44682813714</v>
       </c>
       <c r="F4" t="n">
-        <v>13703.44682813715</v>
+        <v>13703.44682813714</v>
       </c>
       <c r="G4" t="n">
         <v>13703.44682813714</v>
@@ -26441,19 +26441,19 @@
         <v>20172.66271432693</v>
       </c>
       <c r="J4" t="n">
-        <v>20172.66271432693</v>
+        <v>20172.66271432694</v>
       </c>
       <c r="K4" t="n">
         <v>20172.66271432693</v>
       </c>
       <c r="L4" t="n">
-        <v>20172.66271432694</v>
+        <v>20172.66271432693</v>
       </c>
       <c r="M4" t="n">
         <v>13703.44682813714</v>
       </c>
       <c r="N4" t="n">
-        <v>13703.44682813714</v>
+        <v>13703.44682813715</v>
       </c>
       <c r="O4" t="n">
         <v>13703.44682813715</v>
@@ -26502,7 +26502,7 @@
         <v>27748.74501469778</v>
       </c>
       <c r="M5" t="n">
-        <v>26153.48139947166</v>
+        <v>26153.48139947167</v>
       </c>
       <c r="N5" t="n">
         <v>26153.48139947167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103591.9573826787</v>
+        <v>103547.8216039978</v>
       </c>
       <c r="C6" t="n">
-        <v>103591.9573826787</v>
+        <v>103547.8216039977</v>
       </c>
       <c r="D6" t="n">
-        <v>103591.9573826788</v>
+        <v>103547.8216039977</v>
       </c>
       <c r="E6" t="n">
-        <v>-303307.7280610172</v>
+        <v>-314263.4561152673</v>
       </c>
       <c r="F6" t="n">
-        <v>228111.9251583872</v>
+        <v>217156.1971041372</v>
       </c>
       <c r="G6" t="n">
-        <v>228111.9251583873</v>
+        <v>217156.1971041374</v>
       </c>
       <c r="H6" t="n">
-        <v>228111.9251583873</v>
+        <v>217156.1971041372</v>
       </c>
       <c r="I6" t="n">
-        <v>223476.6526611811</v>
+        <v>212892.5821972038</v>
       </c>
       <c r="J6" t="n">
-        <v>230453.8581846109</v>
+        <v>219869.7877206337</v>
       </c>
       <c r="K6" t="n">
-        <v>230453.8581846111</v>
+        <v>219869.7877206337</v>
       </c>
       <c r="L6" t="n">
-        <v>230453.8581846109</v>
+        <v>219869.7877206337</v>
       </c>
       <c r="M6" t="n">
-        <v>179163.4572542368</v>
+        <v>168207.7291999868</v>
       </c>
       <c r="N6" t="n">
-        <v>228111.9251583873</v>
+        <v>217156.1971041373</v>
       </c>
       <c r="O6" t="n">
-        <v>228111.9251583874</v>
+        <v>217156.1971041372</v>
       </c>
       <c r="P6" t="n">
-        <v>228111.9251583874</v>
+        <v>217156.1971041373</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>578.7122079513609</v>
       </c>
       <c r="F3" t="n">
-        <v>578.7122079513608</v>
+        <v>578.7122079513609</v>
       </c>
       <c r="G3" t="n">
         <v>578.7122079513609</v>
@@ -26825,7 +26825,7 @@
         <v>222.6571589824342</v>
       </c>
       <c r="N4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="O4" t="n">
         <v>222.6571589824343</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.23788840832412</v>
+        <v>26.23788840832415</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>196.4192705741098</v>
+        <v>196.4192705741102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824343</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,34 +31995,34 @@
         <v>23.82607597862059</v>
       </c>
       <c r="I14" t="n">
-        <v>89.69166792781846</v>
+        <v>89.69166792781849</v>
       </c>
       <c r="J14" t="n">
-        <v>197.4571869733138</v>
+        <v>197.4571869733139</v>
       </c>
       <c r="K14" t="n">
         <v>295.93713777766</v>
       </c>
       <c r="L14" t="n">
-        <v>367.1361879649623</v>
+        <v>367.1361879649624</v>
       </c>
       <c r="M14" t="n">
-        <v>408.5097486811633</v>
+        <v>408.5097486811634</v>
       </c>
       <c r="N14" t="n">
-        <v>415.1198634986179</v>
+        <v>415.119863498618</v>
       </c>
       <c r="O14" t="n">
-        <v>391.9859156883009</v>
+        <v>391.985915688301</v>
       </c>
       <c r="P14" t="n">
         <v>334.550910125289</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.2338007895779</v>
+        <v>251.233800789578</v>
       </c>
       <c r="R14" t="n">
-        <v>146.1408270662298</v>
+        <v>146.1408270662299</v>
       </c>
       <c r="S14" t="n">
         <v>53.01469121082066</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.244777202008587</v>
+        <v>1.244777202008588</v>
       </c>
       <c r="H15" t="n">
         <v>12.02192718781978</v>
       </c>
       <c r="I15" t="n">
-        <v>42.85746068319041</v>
+        <v>42.85746068319042</v>
       </c>
       <c r="J15" t="n">
-        <v>117.6041478441534</v>
+        <v>117.6041478441535</v>
       </c>
       <c r="K15" t="n">
         <v>201.0042203787288</v>
@@ -32086,31 +32086,31 @@
         <v>270.2749797606804</v>
       </c>
       <c r="M15" t="n">
-        <v>315.3981533334916</v>
+        <v>315.3981533334917</v>
       </c>
       <c r="N15" t="n">
         <v>323.7458039557335</v>
       </c>
       <c r="O15" t="n">
-        <v>296.1641617428063</v>
+        <v>296.1641617428064</v>
       </c>
       <c r="P15" t="n">
-        <v>237.697850092324</v>
+        <v>237.6978500923241</v>
       </c>
       <c r="Q15" t="n">
         <v>158.8947179265699</v>
       </c>
       <c r="R15" t="n">
-        <v>77.28537750716478</v>
+        <v>77.2853775071648</v>
       </c>
       <c r="S15" t="n">
         <v>23.12119057239634</v>
       </c>
       <c r="T15" t="n">
-        <v>5.017325651955664</v>
+        <v>5.017325651955665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0818932369742492</v>
+        <v>0.08189323697424923</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.0435793913877</v>
       </c>
       <c r="H16" t="n">
-        <v>9.278369497974282</v>
+        <v>9.278369497974284</v>
       </c>
       <c r="I16" t="n">
         <v>31.38327842464102</v>
       </c>
       <c r="J16" t="n">
-        <v>73.78106297111037</v>
+        <v>73.78106297111039</v>
       </c>
       <c r="K16" t="n">
         <v>121.2449511084982</v>
@@ -32165,10 +32165,10 @@
         <v>155.1517942432222</v>
       </c>
       <c r="M16" t="n">
-        <v>163.58581314271</v>
+        <v>163.5858131427101</v>
       </c>
       <c r="N16" t="n">
-        <v>159.6961081384469</v>
+        <v>159.696108138447</v>
       </c>
       <c r="O16" t="n">
         <v>147.5052034299633</v>
@@ -32177,19 +32177,19 @@
         <v>126.2161838456541</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.38554340065548</v>
+        <v>87.38554340065549</v>
       </c>
       <c r="R16" t="n">
-        <v>46.92312427094147</v>
+        <v>46.92312427094148</v>
       </c>
       <c r="S16" t="n">
-        <v>18.18674266627472</v>
+        <v>18.18674266627473</v>
       </c>
       <c r="T16" t="n">
-        <v>4.458930126838352</v>
+        <v>4.458930126838353</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05692251225751096</v>
+        <v>0.05692251225751097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>334.550910125289</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.233800789578</v>
+        <v>251.2338007895777</v>
       </c>
       <c r="R44" t="n">
         <v>146.1408270662299</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>44.87649059600796</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>63.16278140436984</v>
@@ -35509,7 +35509,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655633</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,16 +35579,16 @@
         <v>203.1696901045507</v>
       </c>
       <c r="N13" t="n">
-        <v>99.93684358774563</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O13" t="n">
         <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957884</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.41128244662755</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K14" t="n">
-        <v>75.84728673267944</v>
+        <v>75.84728673267949</v>
       </c>
       <c r="L14" t="n">
-        <v>131.3697729949751</v>
+        <v>131.3697729949752</v>
       </c>
       <c r="M14" t="n">
-        <v>178.1635154538906</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N14" t="n">
-        <v>185.7067999020269</v>
+        <v>185.7067999020271</v>
       </c>
       <c r="O14" t="n">
         <v>161.8877042666142</v>
       </c>
       <c r="P14" t="n">
-        <v>103.3179143700194</v>
+        <v>103.3179143700195</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.92811091512846</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>44.87649059600822</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.16278140436981</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L15" t="n">
         <v>131.7205999808062</v>
       </c>
       <c r="M15" t="n">
-        <v>173.2641194114733</v>
+        <v>218.1406100074813</v>
       </c>
       <c r="N15" t="n">
         <v>192.4040918724002</v>
@@ -35743,10 +35743,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P15" t="n">
-        <v>103.7234426779938</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.91294384054837</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,19 +35813,19 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M16" t="n">
-        <v>203.1696901045506</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N16" t="n">
-        <v>203.8282805176755</v>
+        <v>203.8282805176756</v>
       </c>
       <c r="O16" t="n">
-        <v>172.0903313440029</v>
+        <v>172.090331344003</v>
       </c>
       <c r="P16" t="n">
-        <v>118.5787654632331</v>
+        <v>119.8022656121941</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.223500148961094</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.92811091512851</v>
+        <v>28.92811091512808</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.87649059600796</v>
       </c>
       <c r="K18" t="n">
-        <v>108.0392720003778</v>
+        <v>63.16278140436984</v>
       </c>
       <c r="L18" t="n">
         <v>131.7205999808062</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>44.87649059600796</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>63.16278140436984</v>
@@ -36220,7 +36220,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655633</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051849</v>
       </c>
       <c r="M22" t="n">
         <v>203.1696901045507</v>
@@ -36296,7 +36296,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P22" t="n">
-        <v>20.82680632957884</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.41128244662761</v>
+        <v>120.302719376557</v>
       </c>
       <c r="K23" t="n">
         <v>75.84728673267949</v>
@@ -36369,10 +36369,10 @@
         <v>178.1635154538907</v>
       </c>
       <c r="N23" t="n">
-        <v>248.8950473907584</v>
+        <v>185.7067999020271</v>
       </c>
       <c r="O23" t="n">
-        <v>202.5908937078123</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P23" t="n">
         <v>103.3179143700195</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>73.13699954665286</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>63.16278140436984</v>
       </c>
       <c r="L24" t="n">
-        <v>131.7205999808062</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="M24" t="n">
-        <v>248.8950473907584</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N24" t="n">
         <v>192.4040918724002</v>
@@ -36454,7 +36454,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P24" t="n">
-        <v>103.7234426779939</v>
+        <v>135.3169227939795</v>
       </c>
       <c r="Q24" t="n">
         <v>18.91294384054839</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>57.11447188782575</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K26" t="n">
         <v>75.84728673267949</v>
@@ -36609,7 +36609,7 @@
         <v>248.8950473907584</v>
       </c>
       <c r="O26" t="n">
-        <v>161.8877042666142</v>
+        <v>202.5908937078123</v>
       </c>
       <c r="P26" t="n">
         <v>103.3179143700195</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.64604402829476</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>63.16278140436984</v>
@@ -36682,19 +36682,19 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M27" t="n">
-        <v>248.8950473907584</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N27" t="n">
-        <v>248.8950473907584</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O27" t="n">
         <v>153.5679172983619</v>
       </c>
       <c r="P27" t="n">
-        <v>103.7234426779939</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.91294384054839</v>
+        <v>22.50926665372176</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>120.302719376557</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K29" t="n">
         <v>75.84728673267949</v>
       </c>
       <c r="L29" t="n">
-        <v>131.3697729949752</v>
+        <v>235.2612099249045</v>
       </c>
       <c r="M29" t="n">
         <v>178.1635154538907</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>116.8575565178956</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>63.16278140436984</v>
@@ -36922,16 +36922,16 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N30" t="n">
-        <v>192.4040918724002</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="O30" t="n">
         <v>153.5679172983619</v>
       </c>
       <c r="P30" t="n">
-        <v>103.7234426779939</v>
+        <v>196.0004146855736</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.82331484859056</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16.41128244662761</v>
+        <v>120.302719376557</v>
       </c>
       <c r="K32" t="n">
         <v>75.84728673267949</v>
@@ -37089,7 +37089,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q32" t="n">
-        <v>132.819547845058</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>116.8575565178956</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>63.16278140436984</v>
@@ -37159,7 +37159,7 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N33" t="n">
-        <v>224.3144628804424</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O33" t="n">
         <v>153.5679172983619</v>
@@ -37168,7 +37168,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.91294384054839</v>
+        <v>167.6808713664863</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662715</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267949</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>44.87649059600796</v>
       </c>
       <c r="K36" t="n">
         <v>63.16278140436984</v>
@@ -37405,7 +37405,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.78943443655611</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M37" t="n">
-        <v>203.1696901045507</v>
+        <v>99.27825317462076</v>
       </c>
       <c r="N37" t="n">
         <v>203.8282805176756</v>
@@ -37481,7 +37481,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P37" t="n">
-        <v>19.60330618061748</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
         <v>1.223500148961108</v>
@@ -37551,7 +37551,7 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M38" t="n">
-        <v>178.1635154538907</v>
+        <v>178.1635154538904</v>
       </c>
       <c r="N38" t="n">
         <v>185.7067999020271</v>
@@ -37639,10 +37639,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P39" t="n">
-        <v>148.5999332740018</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655645</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>182.7418195035384</v>
+        <v>177.8258418562239</v>
       </c>
       <c r="M40" t="n">
         <v>203.1696901045507</v>
@@ -37718,7 +37718,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P40" t="n">
-        <v>19.60330618061771</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q40" t="n">
         <v>1.223500148961108</v>
@@ -37797,7 +37797,7 @@
         <v>161.8877042666142</v>
       </c>
       <c r="P41" t="n">
-        <v>103.3179143700192</v>
+        <v>103.3179143700195</v>
       </c>
       <c r="Q41" t="n">
         <v>28.92811091512851</v>
@@ -37943,7 +37943,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>182.7418195035384</v>
+        <v>179.0493420051851</v>
       </c>
       <c r="M43" t="n">
         <v>203.1696901045507</v>
@@ -37955,10 +37955,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>118.5787654632331</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q44" t="n">
-        <v>28.92811091512851</v>
+        <v>28.92811091512819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L45" t="n">
-        <v>131.7205999808062</v>
+        <v>176.5970905768143</v>
       </c>
       <c r="M45" t="n">
         <v>173.2641194114734</v>
@@ -38116,7 +38116,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.78943443655645</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M46" t="n">
-        <v>100.501753323582</v>
+        <v>203.1696901045507</v>
       </c>
       <c r="N46" t="n">
         <v>203.8282805176756</v>
@@ -38192,7 +38192,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957896</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1143434.267404124</v>
+        <v>1198468.436445904</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10758801.54646444</v>
+        <v>10758801.54646443</v>
       </c>
     </row>
     <row r="8">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
       <c r="U11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>192.3881347568083</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.317903633380329</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>26.49127976934841</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46.53917216822466</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V12" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>82.57346213723679</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S13" t="n">
         <v>205.8298553706975</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U13" t="n">
-        <v>217.0162348738041</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X13" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V14" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>196.1164256317279</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>196.116425631728</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>58.69302954925838</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,7 +1703,7 @@
         <v>136.0987399612021</v>
       </c>
       <c r="H15" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>112.604208628695</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>37.18425469186683</v>
+        <v>65.74615852550005</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S16" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>46.12823741901145</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S17" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9116779448064</v>
+        <v>192.3881347568083</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.470307743743866</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>182.8921255384527</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.38010881900313</v>
       </c>
       <c r="H19" t="n">
         <v>152.9488030094653</v>
       </c>
       <c r="I19" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>158.5848887138164</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.116425631728</v>
+        <v>192.3881347568084</v>
       </c>
       <c r="U20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
     </row>
     <row r="21">
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S21" t="n">
         <v>148.5619805314415</v>
@@ -2216,19 +2216,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U21" t="n">
-        <v>138.9970496014606</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>69.16620759950692</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>17.49717068213807</v>
+        <v>217.0162348738046</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D23" t="n">
         <v>248.8950473907584</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>59.49308849143546</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>98.44253609919242</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>46.53917216822466</v>
+        <v>35.94441796512196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U24" t="n">
-        <v>156.5091408510607</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>74.87552501202104</v>
       </c>
       <c r="H25" t="n">
         <v>152.9488030094653</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S25" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>132.5285387540966</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>219.2267577417799</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="C26" t="n">
+      <c r="H26" t="n">
         <v>248.8950473907584</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>219.2267577417799</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>57.80810685371066</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S27" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>196.2389925646834</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>248.8950473907584</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>11.41521497870596</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.6297885346303</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>215.4984668668601</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="F29" t="n">
         <v>248.8950473907584</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>215.4984668668601</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>16.74808100443378</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>248.8950473907584</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>52.58379132639335</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.50155685934798</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>121.0430038519731</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>99.20474881230714</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,64 +3040,64 @@
         <v>248.8950473907584</v>
       </c>
       <c r="F32" t="n">
+        <v>215.4984668668601</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3.728290874919821</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>248.8950473907584</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>156.0053783754247</v>
-      </c>
-      <c r="T32" t="n">
-        <v>212.9116779448064</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>13.47246085434142</v>
       </c>
       <c r="T33" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>75.79216386788454</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>131.9216826556128</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>234.1273986250972</v>
       </c>
       <c r="W34" t="n">
-        <v>248.8950473907584</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9116779448064</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>202.133615794436</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6571589824342</v>
+        <v>192.3881347568083</v>
       </c>
     </row>
     <row r="36">
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>195.1474030428659</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6571589824342</v>
+        <v>34.8276595729487</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>222.6571589824342</v>
       </c>
       <c r="X36" t="n">
-        <v>196.116425631728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.947399967071</v>
+        <v>12.15092606724722</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J37" t="n">
-        <v>19.57811714556239</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.6571589824342</v>
       </c>
       <c r="U37" t="n">
-        <v>14.43474279625021</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6571589824342</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.38275638138352</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>222.6571589824343</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>192.3881347568082</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>3.728290874919821</v>
       </c>
       <c r="S38" t="n">
-        <v>156.0053783754247</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>87.34077520501813</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>222.6571589824343</v>
       </c>
       <c r="W39" t="n">
-        <v>190.1281427652065</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.3908189581278</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.9488030094653</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>98.87738163762593</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>222.6571589824343</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>192.3881347568083</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>192.3881347568082</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>222.6571589824343</v>
-      </c>
-      <c r="V41" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="W41" t="n">
-        <v>222.6571589824343</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.472863184825397</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>196.116425631728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>121.4559175408632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>130.0351698815554</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.947399967071</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>71.6039131142208</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>222.6571589824343</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>120.7842216425874</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>196.116425631728</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>31.95429183575644</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>196.116425631728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>124.7370635730186</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.9488030094653</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>124.4762392121052</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6571589824343</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>222.6571589824343</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="C11" t="n">
-        <v>242.7187939129728</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="D11" t="n">
         <v>242.7187939129728</v>
@@ -5053,40 +5053,40 @@
         <v>415.5865117704858</v>
       </c>
       <c r="N11" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734926</v>
       </c>
       <c r="O11" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P11" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237599</v>
       </c>
       <c r="Q11" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R11" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="S11" t="n">
-        <v>886.86268555103</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="T11" t="n">
-        <v>886.86268555103</v>
+        <v>692.531236301729</v>
       </c>
       <c r="U11" t="n">
-        <v>661.9564643566521</v>
+        <v>692.531236301729</v>
       </c>
       <c r="V11" t="n">
-        <v>437.0502431622741</v>
+        <v>692.531236301729</v>
       </c>
       <c r="W11" t="n">
-        <v>242.7187939129728</v>
+        <v>692.531236301729</v>
       </c>
       <c r="X11" t="n">
-        <v>242.7187939129728</v>
+        <v>692.531236301729</v>
       </c>
       <c r="Y11" t="n">
-        <v>242.7187939129728</v>
+        <v>692.531236301729</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.20439457049406</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="C12" t="n">
-        <v>25.20439457049406</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="D12" t="n">
-        <v>17.81257271859474</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="E12" t="n">
-        <v>17.81257271859474</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="F12" t="n">
-        <v>17.81257271859474</v>
+        <v>166.0476123316264</v>
       </c>
       <c r="G12" t="n">
-        <v>17.81257271859474</v>
+        <v>166.0476123316264</v>
       </c>
       <c r="H12" t="n">
-        <v>17.81257271859474</v>
+        <v>64.8218375349833</v>
       </c>
       <c r="I12" t="n">
         <v>17.81257271859474</v>
@@ -5138,34 +5138,34 @@
         <v>724.7908875863322</v>
       </c>
       <c r="P12" t="n">
-        <v>827.4770958375461</v>
+        <v>871.9048215275942</v>
       </c>
       <c r="Q12" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686479</v>
       </c>
       <c r="S12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686479</v>
       </c>
       <c r="T12" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686479</v>
       </c>
       <c r="U12" t="n">
-        <v>665.7224147353588</v>
+        <v>642.6189231742699</v>
       </c>
       <c r="V12" t="n">
-        <v>440.8161935409808</v>
+        <v>417.7127019798918</v>
       </c>
       <c r="W12" t="n">
-        <v>440.8161935409808</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="X12" t="n">
-        <v>232.964693335448</v>
+        <v>192.8064807855137</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.20439457049406</v>
+        <v>192.8064807855137</v>
       </c>
     </row>
     <row r="13">
@@ -5202,49 +5202,49 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K13" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L13" t="n">
-        <v>296.7126787168869</v>
+        <v>193.8601561562565</v>
       </c>
       <c r="M13" t="n">
-        <v>497.8506719203921</v>
+        <v>394.9981493597617</v>
       </c>
       <c r="N13" t="n">
-        <v>699.6406696328909</v>
+        <v>596.7881470722605</v>
       </c>
       <c r="O13" t="n">
-        <v>870.0100976634538</v>
+        <v>767.1575751028234</v>
       </c>
       <c r="P13" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822656</v>
       </c>
       <c r="Q13" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R13" t="n">
-        <v>890.6286359297369</v>
+        <v>758.9414974385977</v>
       </c>
       <c r="S13" t="n">
-        <v>682.7196911108505</v>
+        <v>551.0325526197113</v>
       </c>
       <c r="T13" t="n">
-        <v>682.7196911108505</v>
+        <v>326.1263314253332</v>
       </c>
       <c r="U13" t="n">
-        <v>463.5113730565029</v>
+        <v>326.1263314253332</v>
       </c>
       <c r="V13" t="n">
-        <v>463.5113730565029</v>
+        <v>326.1263314253332</v>
       </c>
       <c r="W13" t="n">
-        <v>463.5113730565029</v>
+        <v>101.2201102309551</v>
       </c>
       <c r="X13" t="n">
-        <v>238.6051518621248</v>
+        <v>101.2201102309551</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.81257271859474</v>
+        <v>101.2201102309551</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>467.6250151073508</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="C14" t="n">
-        <v>467.6250151073508</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="D14" t="n">
-        <v>467.6250151073508</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="E14" t="n">
-        <v>467.6250151073508</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="F14" t="n">
+        <v>467.6250151073509</v>
+      </c>
+      <c r="G14" t="n">
         <v>242.7187939129728</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.81257271859474</v>
       </c>
       <c r="H14" t="n">
         <v>17.81257271859474</v>
@@ -5278,52 +5278,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J14" t="n">
-        <v>34.05974234075597</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K14" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061089</v>
       </c>
       <c r="L14" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711343</v>
       </c>
       <c r="M14" t="n">
-        <v>415.5865117704858</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N14" t="n">
-        <v>599.4362436734923</v>
+        <v>599.4362436734929</v>
       </c>
       <c r="O14" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974409</v>
       </c>
       <c r="P14" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237599</v>
       </c>
       <c r="Q14" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R14" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="S14" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="T14" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="U14" t="n">
-        <v>890.6286359297369</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="V14" t="n">
-        <v>665.7224147353588</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="W14" t="n">
-        <v>665.7224147353588</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="X14" t="n">
-        <v>467.6250151073508</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="Y14" t="n">
-        <v>467.6250151073508</v>
+        <v>467.6250151073509</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>551.9807898578891</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="C15" t="n">
-        <v>551.9807898578891</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0463801966379</v>
+        <v>461.0580604054502</v>
       </c>
       <c r="E15" t="n">
-        <v>403.0463801966379</v>
+        <v>301.8206053999947</v>
       </c>
       <c r="F15" t="n">
-        <v>256.5118222235228</v>
+        <v>155.2860474268797</v>
       </c>
       <c r="G15" t="n">
-        <v>119.0383475152379</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H15" t="n">
         <v>17.81257271859474</v>
@@ -5366,43 +5366,43 @@
         <v>210.7471202899191</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N15" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O15" t="n">
-        <v>769.2186132763801</v>
+        <v>769.2186132763803</v>
       </c>
       <c r="P15" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275942</v>
       </c>
       <c r="Q15" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R15" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686479</v>
       </c>
       <c r="S15" t="n">
-        <v>890.6286359297369</v>
+        <v>717.4625377712323</v>
       </c>
       <c r="T15" t="n">
-        <v>890.6286359297369</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="U15" t="n">
-        <v>890.6286359297369</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="V15" t="n">
-        <v>665.7224147353588</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="W15" t="n">
-        <v>551.9807898578891</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="X15" t="n">
-        <v>551.9807898578891</v>
+        <v>520.3439488390445</v>
       </c>
       <c r="Y15" t="n">
-        <v>551.9807898578891</v>
+        <v>520.3439488390445</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.37242594270265</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="C16" t="n">
-        <v>55.37242594270265</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="D16" t="n">
-        <v>55.37242594270265</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="E16" t="n">
-        <v>55.37242594270265</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="F16" t="n">
         <v>17.81257271859474</v>
@@ -5439,49 +5439,49 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K16" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L16" t="n">
-        <v>198.7269740270977</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M16" t="n">
-        <v>399.8649672306029</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N16" t="n">
-        <v>601.6549649431017</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O16" t="n">
-        <v>772.0243929736647</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P16" t="n">
-        <v>890.6286359297369</v>
+        <v>889.4173707822656</v>
       </c>
       <c r="Q16" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R16" t="n">
-        <v>890.6286359297369</v>
+        <v>758.9414974385977</v>
       </c>
       <c r="S16" t="n">
-        <v>682.7196911108505</v>
+        <v>758.9414974385977</v>
       </c>
       <c r="T16" t="n">
-        <v>682.7196911108505</v>
+        <v>534.0352762442196</v>
       </c>
       <c r="U16" t="n">
-        <v>682.7196911108505</v>
+        <v>309.1290550498416</v>
       </c>
       <c r="V16" t="n">
-        <v>682.7196911108505</v>
+        <v>309.1290550498416</v>
       </c>
       <c r="W16" t="n">
-        <v>457.8134699164725</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="X16" t="n">
-        <v>457.8134699164725</v>
+        <v>84.22283385546348</v>
       </c>
       <c r="Y16" t="n">
-        <v>237.0208907729424</v>
+        <v>84.22283385546348</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="C17" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="D17" t="n">
-        <v>289.3129731240954</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="E17" t="n">
-        <v>64.40675192971742</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F17" t="n">
         <v>17.81257271859474</v>
@@ -5515,52 +5515,52 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J17" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075606</v>
       </c>
       <c r="K17" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061087</v>
       </c>
       <c r="L17" t="n">
-        <v>239.2046314711342</v>
+        <v>239.204631471134</v>
       </c>
       <c r="M17" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N17" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734925</v>
       </c>
       <c r="O17" t="n">
-        <v>759.7050708974408</v>
+        <v>759.7050708974407</v>
       </c>
       <c r="P17" t="n">
-        <v>861.9898061237601</v>
+        <v>861.9898061237599</v>
       </c>
       <c r="Q17" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R17" t="n">
-        <v>886.86268555103</v>
+        <v>886.8626855510303</v>
       </c>
       <c r="S17" t="n">
-        <v>729.2814952728233</v>
+        <v>886.8626855510303</v>
       </c>
       <c r="T17" t="n">
-        <v>514.2191943184735</v>
+        <v>692.531236301729</v>
       </c>
       <c r="U17" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="V17" t="n">
-        <v>514.2191943184735</v>
+        <v>467.6250151073509</v>
       </c>
       <c r="W17" t="n">
-        <v>514.2191943184735</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="X17" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="Y17" t="n">
-        <v>514.2191943184735</v>
+        <v>17.81257271859474</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>498.0376149782923</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="C18" t="n">
-        <v>323.5845856971653</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="D18" t="n">
-        <v>323.5845856971653</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="E18" t="n">
-        <v>164.3471306917098</v>
+        <v>309.3663707977158</v>
       </c>
       <c r="F18" t="n">
-        <v>17.81257271859474</v>
+        <v>162.8318128246007</v>
       </c>
       <c r="G18" t="n">
-        <v>17.81257271859474</v>
+        <v>25.35833811631582</v>
       </c>
       <c r="H18" t="n">
-        <v>17.81257271859474</v>
+        <v>25.35833811631582</v>
       </c>
       <c r="I18" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J18" t="n">
-        <v>62.24029840864262</v>
+        <v>62.24029840864284</v>
       </c>
       <c r="K18" t="n">
-        <v>124.7714519989688</v>
+        <v>124.771451998969</v>
       </c>
       <c r="L18" t="n">
-        <v>255.1748459799669</v>
+        <v>255.1748459799672</v>
       </c>
       <c r="M18" t="n">
-        <v>426.7063241973256</v>
+        <v>426.7063241973258</v>
       </c>
       <c r="N18" t="n">
-        <v>617.1863751510018</v>
+        <v>617.186375151002</v>
       </c>
       <c r="O18" t="n">
-        <v>769.2186132763801</v>
+        <v>769.2186132763803</v>
       </c>
       <c r="P18" t="n">
-        <v>871.904821527594</v>
+        <v>871.9048215275942</v>
       </c>
       <c r="Q18" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R18" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="S18" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="T18" t="n">
-        <v>890.6286359297369</v>
+        <v>693.5100469975494</v>
       </c>
       <c r="U18" t="n">
-        <v>890.6286359297369</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="V18" t="n">
-        <v>890.6286359297369</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="W18" t="n">
-        <v>705.8891151838251</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="X18" t="n">
-        <v>498.0376149782923</v>
+        <v>468.6038258031713</v>
       </c>
       <c r="Y18" t="n">
-        <v>498.0376149782923</v>
+        <v>468.6038258031713</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>297.6267136398902</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="C19" t="n">
-        <v>297.6267136398902</v>
+        <v>496.7862318074522</v>
       </c>
       <c r="D19" t="n">
-        <v>297.6267136398902</v>
+        <v>496.7862318074522</v>
       </c>
       <c r="E19" t="n">
-        <v>297.6267136398902</v>
+        <v>348.8731382250591</v>
       </c>
       <c r="F19" t="n">
-        <v>297.6267136398902</v>
+        <v>201.9831907271487</v>
       </c>
       <c r="G19" t="n">
-        <v>297.6267136398902</v>
+        <v>172.306313132196</v>
       </c>
       <c r="H19" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="I19" t="n">
         <v>17.81257271859474</v>
@@ -5676,49 +5676,49 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K19" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L19" t="n">
-        <v>296.7126787168869</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M19" t="n">
-        <v>497.8506719203921</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N19" t="n">
-        <v>699.6406696328909</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O19" t="n">
-        <v>870.0100976634538</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P19" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="Q19" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="R19" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="S19" t="n">
-        <v>682.7196911108505</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="T19" t="n">
-        <v>522.5329348342682</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="U19" t="n">
-        <v>297.6267136398902</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="V19" t="n">
-        <v>297.6267136398902</v>
+        <v>890.6286359297371</v>
       </c>
       <c r="W19" t="n">
-        <v>297.6267136398902</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="X19" t="n">
-        <v>297.6267136398902</v>
+        <v>665.7224147353591</v>
       </c>
       <c r="Y19" t="n">
-        <v>297.6267136398902</v>
+        <v>665.7224147353591</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912973</v>
       </c>
       <c r="C20" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912973</v>
       </c>
       <c r="D20" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912973</v>
       </c>
       <c r="E20" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912973</v>
       </c>
       <c r="F20" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G20" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H20" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I20" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05974234075597</v>
+        <v>34.0597423407562</v>
       </c>
       <c r="K20" t="n">
-        <v>109.1485562061088</v>
+        <v>109.148556206109</v>
       </c>
       <c r="L20" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711344</v>
       </c>
       <c r="M20" t="n">
-        <v>415.5865117704858</v>
+        <v>415.5865117704864</v>
       </c>
       <c r="N20" t="n">
-        <v>599.4362436734923</v>
+        <v>599.436243673493</v>
       </c>
       <c r="O20" t="n">
-        <v>759.7050708974404</v>
+        <v>759.7050708974411</v>
       </c>
       <c r="P20" t="n">
-        <v>861.9898061237596</v>
+        <v>861.9898061237603</v>
       </c>
       <c r="Q20" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R20" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="S20" t="n">
-        <v>890.6286359297369</v>
+        <v>886.8626855510307</v>
       </c>
       <c r="T20" t="n">
-        <v>692.5312363017288</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="U20" t="n">
-        <v>467.6250151073508</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="V20" t="n">
-        <v>242.7187939129728</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="W20" t="n">
-        <v>17.81257271859474</v>
+        <v>692.5312363017293</v>
       </c>
       <c r="X20" t="n">
-        <v>17.81257271859474</v>
+        <v>467.6250151073511</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.81257271859474</v>
+        <v>242.718793912973</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C21" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D21" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E21" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F21" t="n">
-        <v>256.5118222235228</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G21" t="n">
-        <v>119.0383475152379</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H21" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I21" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J21" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K21" t="n">
-        <v>80.34372630892088</v>
+        <v>80.34372630892089</v>
       </c>
       <c r="L21" t="n">
         <v>210.7471202899191</v>
       </c>
       <c r="M21" t="n">
-        <v>382.2785985072777</v>
+        <v>426.7063241973262</v>
       </c>
       <c r="N21" t="n">
-        <v>572.758649460954</v>
+        <v>617.1863751510025</v>
       </c>
       <c r="O21" t="n">
-        <v>724.7908875863322</v>
+        <v>769.2186132763808</v>
       </c>
       <c r="P21" t="n">
-        <v>827.4770958375461</v>
+        <v>871.9048215275947</v>
       </c>
       <c r="Q21" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R21" t="n">
-        <v>890.6286359297369</v>
+        <v>867.5251443686484</v>
       </c>
       <c r="S21" t="n">
-        <v>740.5660293323212</v>
+        <v>717.4625377712327</v>
       </c>
       <c r="T21" t="n">
-        <v>543.4474404001335</v>
+        <v>520.343948839045</v>
       </c>
       <c r="U21" t="n">
-        <v>403.0463801966379</v>
+        <v>295.4377276446668</v>
       </c>
       <c r="V21" t="n">
-        <v>403.0463801966379</v>
+        <v>295.4377276446668</v>
       </c>
       <c r="W21" t="n">
-        <v>403.0463801966379</v>
+        <v>225.5728714835487</v>
       </c>
       <c r="X21" t="n">
-        <v>403.0463801966379</v>
+        <v>225.5728714835487</v>
       </c>
       <c r="Y21" t="n">
-        <v>403.0463801966379</v>
+        <v>17.81257271859475</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.139560136535</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="C22" t="n">
-        <v>440.139560136535</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="D22" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="E22" t="n">
-        <v>290.0229207241993</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="F22" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="G22" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="H22" t="n">
-        <v>143.132973226289</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="I22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="J22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="K22" t="n">
-        <v>17.81257271859474</v>
+        <v>17.81257271859475</v>
       </c>
       <c r="L22" t="n">
-        <v>195.0714213037278</v>
+        <v>195.0714213037285</v>
       </c>
       <c r="M22" t="n">
-        <v>396.209414507233</v>
+        <v>396.2094145072336</v>
       </c>
       <c r="N22" t="n">
-        <v>597.9994122197318</v>
+        <v>597.9994122197324</v>
       </c>
       <c r="O22" t="n">
-        <v>768.3688402502947</v>
+        <v>768.3688402502954</v>
       </c>
       <c r="P22" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="Q22" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="R22" t="n">
-        <v>890.6286359297369</v>
+        <v>890.6286359297376</v>
       </c>
       <c r="S22" t="n">
-        <v>682.7196911108505</v>
+        <v>682.7196911108512</v>
       </c>
       <c r="T22" t="n">
-        <v>457.8134699164725</v>
+        <v>682.7196911108512</v>
       </c>
       <c r="U22" t="n">
-        <v>440.139560136535</v>
+        <v>463.511373056503</v>
       </c>
       <c r="V22" t="n">
-        <v>440.139560136535</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="W22" t="n">
-        <v>440.139560136535</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="X22" t="n">
-        <v>440.139560136535</v>
+        <v>238.6051518621248</v>
       </c>
       <c r="Y22" t="n">
-        <v>440.139560136535</v>
+        <v>17.81257271859475</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>331.4147713490322</v>
+        <v>896.143284412334</v>
       </c>
       <c r="C23" t="n">
-        <v>331.4147713490322</v>
+        <v>644.7341456337901</v>
       </c>
       <c r="D23" t="n">
-        <v>80.00563257048842</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="E23" t="n">
-        <v>80.00563257048842</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="F23" t="n">
-        <v>80.00563257048842</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="G23" t="n">
-        <v>19.91160379126067</v>
+        <v>393.3250068552463</v>
       </c>
       <c r="H23" t="n">
-        <v>19.91160379126067</v>
+        <v>141.9158680767025</v>
       </c>
       <c r="I23" t="n">
         <v>19.91160379126067</v>
@@ -6013,28 +6013,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R23" t="n">
-        <v>991.8142391843265</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S23" t="n">
-        <v>834.2330489061198</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T23" t="n">
-        <v>834.2330489061198</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U23" t="n">
-        <v>834.2330489061198</v>
+        <v>896.143284412334</v>
       </c>
       <c r="V23" t="n">
-        <v>834.2330489061198</v>
+        <v>896.143284412334</v>
       </c>
       <c r="W23" t="n">
-        <v>834.2330489061198</v>
+        <v>896.143284412334</v>
       </c>
       <c r="X23" t="n">
-        <v>582.823910127576</v>
+        <v>896.143284412334</v>
       </c>
       <c r="Y23" t="n">
-        <v>331.4147713490322</v>
+        <v>896.143284412334</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>350.9289012890492</v>
+        <v>648.39899403343</v>
       </c>
       <c r="C24" t="n">
-        <v>350.9289012890492</v>
+        <v>648.39899403343</v>
       </c>
       <c r="D24" t="n">
-        <v>350.9289012890492</v>
+        <v>499.4645843721787</v>
       </c>
       <c r="E24" t="n">
-        <v>350.9289012890492</v>
+        <v>340.2271293667232</v>
       </c>
       <c r="F24" t="n">
-        <v>204.3943433159342</v>
+        <v>193.6925713936082</v>
       </c>
       <c r="G24" t="n">
-        <v>66.92086860764923</v>
+        <v>56.21909668532325</v>
       </c>
       <c r="H24" t="n">
-        <v>66.92086860764923</v>
+        <v>56.21909668532325</v>
       </c>
       <c r="I24" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="J24" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439773</v>
       </c>
       <c r="K24" t="n">
-        <v>82.4427573815868</v>
+        <v>198.1317383343035</v>
       </c>
       <c r="L24" t="n">
-        <v>328.8488542984376</v>
+        <v>328.5351323153017</v>
       </c>
       <c r="M24" t="n">
-        <v>500.3803325157962</v>
+        <v>500.0666105326603</v>
       </c>
       <c r="N24" t="n">
-        <v>690.8603834694725</v>
+        <v>690.5466614863366</v>
       </c>
       <c r="O24" t="n">
-        <v>842.8926215948508</v>
+        <v>842.5788996117149</v>
       </c>
       <c r="P24" t="n">
-        <v>976.8563751608905</v>
+        <v>945.2651078629287</v>
       </c>
       <c r="Q24" t="n">
         <v>995.5801895630334</v>
@@ -6095,25 +6095,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S24" t="n">
-        <v>995.5801895630334</v>
+        <v>845.5175829656177</v>
       </c>
       <c r="T24" t="n">
-        <v>995.5801895630334</v>
+        <v>648.39899403343</v>
       </c>
       <c r="U24" t="n">
-        <v>837.4901482993357</v>
+        <v>648.39899403343</v>
       </c>
       <c r="V24" t="n">
-        <v>602.3380400675929</v>
+        <v>648.39899403343</v>
       </c>
       <c r="W24" t="n">
-        <v>350.9289012890492</v>
+        <v>648.39899403343</v>
       </c>
       <c r="X24" t="n">
-        <v>350.9289012890492</v>
+        <v>648.39899403343</v>
       </c>
       <c r="Y24" t="n">
-        <v>350.9289012890492</v>
+        <v>648.39899403343</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174.405344204862</v>
+        <v>863.893051071894</v>
       </c>
       <c r="C25" t="n">
-        <v>174.405344204862</v>
+        <v>694.9568681439871</v>
       </c>
       <c r="D25" t="n">
-        <v>174.405344204862</v>
+        <v>544.8402287316513</v>
       </c>
       <c r="E25" t="n">
-        <v>174.405344204862</v>
+        <v>396.9271351492582</v>
       </c>
       <c r="F25" t="n">
-        <v>174.405344204862</v>
+        <v>250.0371876513479</v>
       </c>
       <c r="G25" t="n">
         <v>174.405344204862</v>
@@ -6150,7 +6150,7 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K25" t="n">
-        <v>117.8973084810498</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L25" t="n">
         <v>298.8117097895529</v>
@@ -6171,28 +6171,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R25" t="n">
-        <v>995.5801895630334</v>
+        <v>863.893051071894</v>
       </c>
       <c r="S25" t="n">
-        <v>787.671244744147</v>
+        <v>863.893051071894</v>
       </c>
       <c r="T25" t="n">
-        <v>787.671244744147</v>
+        <v>863.893051071894</v>
       </c>
       <c r="U25" t="n">
-        <v>787.671244744147</v>
+        <v>863.893051071894</v>
       </c>
       <c r="V25" t="n">
-        <v>536.2621059656032</v>
+        <v>863.893051071894</v>
       </c>
       <c r="W25" t="n">
-        <v>402.3948951028793</v>
+        <v>863.893051071894</v>
       </c>
       <c r="X25" t="n">
-        <v>174.405344204862</v>
+        <v>863.893051071894</v>
       </c>
       <c r="Y25" t="n">
-        <v>174.405344204862</v>
+        <v>863.893051071894</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>492.7619120059458</v>
+        <v>744.1710507844896</v>
       </c>
       <c r="C26" t="n">
-        <v>241.352773227402</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="D26" t="n">
-        <v>241.352773227402</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="E26" t="n">
-        <v>241.352773227402</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="F26" t="n">
-        <v>241.352773227402</v>
+        <v>522.7298813483483</v>
       </c>
       <c r="G26" t="n">
-        <v>241.352773227402</v>
+        <v>271.3207425698045</v>
       </c>
       <c r="H26" t="n">
         <v>19.91160379126067</v>
@@ -6238,13 +6238,13 @@
         <v>417.6855428431519</v>
       </c>
       <c r="N26" t="n">
-        <v>664.0916397600026</v>
+        <v>601.5352747461586</v>
       </c>
       <c r="O26" t="n">
-        <v>864.6566245307368</v>
+        <v>761.8041019701067</v>
       </c>
       <c r="P26" t="n">
-        <v>966.9413597570561</v>
+        <v>864.088837196426</v>
       </c>
       <c r="Q26" t="n">
         <v>995.5801895630334</v>
@@ -6262,13 +6262,13 @@
         <v>995.5801895630334</v>
       </c>
       <c r="V26" t="n">
-        <v>995.5801895630334</v>
+        <v>744.1710507844896</v>
       </c>
       <c r="W26" t="n">
-        <v>995.5801895630334</v>
+        <v>744.1710507844896</v>
       </c>
       <c r="X26" t="n">
-        <v>995.5801895630334</v>
+        <v>744.1710507844896</v>
       </c>
       <c r="Y26" t="n">
         <v>744.1710507844896</v>
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.91160379126067</v>
+        <v>523.9489702912126</v>
       </c>
       <c r="C27" t="n">
-        <v>19.91160379126067</v>
+        <v>523.9489702912126</v>
       </c>
       <c r="D27" t="n">
-        <v>19.91160379126067</v>
+        <v>375.0145606299614</v>
       </c>
       <c r="E27" t="n">
-        <v>19.91160379126067</v>
+        <v>215.7771056245059</v>
       </c>
       <c r="F27" t="n">
-        <v>19.91160379126067</v>
+        <v>157.3850784995456</v>
       </c>
       <c r="G27" t="n">
         <v>19.91160379126067</v>
@@ -6323,34 +6323,34 @@
         <v>726.8899186589981</v>
       </c>
       <c r="P27" t="n">
-        <v>973.2960155758489</v>
+        <v>829.576126910212</v>
       </c>
       <c r="Q27" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R27" t="n">
-        <v>995.5801895630334</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="S27" t="n">
-        <v>845.5175829656177</v>
+        <v>972.4766980019442</v>
       </c>
       <c r="T27" t="n">
-        <v>845.5175829656177</v>
+        <v>775.3581090697564</v>
       </c>
       <c r="U27" t="n">
-        <v>845.5175829656177</v>
+        <v>775.3581090697564</v>
       </c>
       <c r="V27" t="n">
-        <v>647.2963783548264</v>
+        <v>775.3581090697564</v>
       </c>
       <c r="W27" t="n">
-        <v>395.8872395762826</v>
+        <v>523.9489702912126</v>
       </c>
       <c r="X27" t="n">
-        <v>395.8872395762826</v>
+        <v>523.9489702912126</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.1269408113287</v>
+        <v>523.9489702912126</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>813.9317247327937</v>
+        <v>483.34838221204</v>
       </c>
       <c r="C28" t="n">
-        <v>644.9955418048868</v>
+        <v>483.34838221204</v>
       </c>
       <c r="D28" t="n">
-        <v>494.878902392551</v>
+        <v>483.34838221204</v>
       </c>
       <c r="E28" t="n">
-        <v>346.9658088101579</v>
+        <v>335.4352886296468</v>
       </c>
       <c r="F28" t="n">
-        <v>200.0758613122476</v>
+        <v>188.5453411317365</v>
       </c>
       <c r="G28" t="n">
-        <v>31.44212397177174</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H28" t="n">
-        <v>31.44212397177174</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="I28" t="n">
         <v>19.91160379126067</v>
@@ -6387,19 +6387,19 @@
         <v>19.91160379126067</v>
       </c>
       <c r="K28" t="n">
-        <v>117.8973084810498</v>
+        <v>117.8973084810499</v>
       </c>
       <c r="L28" t="n">
-        <v>298.8117097895528</v>
+        <v>298.8117097895529</v>
       </c>
       <c r="M28" t="n">
-        <v>499.9497029930579</v>
+        <v>499.949702993058</v>
       </c>
       <c r="N28" t="n">
-        <v>701.7397007055567</v>
+        <v>701.7397007055569</v>
       </c>
       <c r="O28" t="n">
-        <v>872.1091287361197</v>
+        <v>872.1091287361198</v>
       </c>
       <c r="P28" t="n">
         <v>994.3689244155619</v>
@@ -6417,19 +6417,19 @@
         <v>995.5801895630334</v>
       </c>
       <c r="U28" t="n">
-        <v>995.5801895630334</v>
+        <v>955.5501001341139</v>
       </c>
       <c r="V28" t="n">
-        <v>995.5801895630334</v>
+        <v>704.1409613555701</v>
       </c>
       <c r="W28" t="n">
-        <v>995.5801895630334</v>
+        <v>704.1409613555701</v>
       </c>
       <c r="X28" t="n">
-        <v>995.5801895630334</v>
+        <v>704.1409613555701</v>
       </c>
       <c r="Y28" t="n">
-        <v>995.5801895630334</v>
+        <v>483.34838221204</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.7298813483483</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="C29" t="n">
-        <v>522.7298813483483</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="D29" t="n">
-        <v>522.7298813483483</v>
+        <v>774.1390201268921</v>
       </c>
       <c r="E29" t="n">
         <v>522.7298813483483</v>
@@ -6499,16 +6499,16 @@
         <v>991.8142391843265</v>
       </c>
       <c r="V29" t="n">
-        <v>774.1390201268921</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="W29" t="n">
-        <v>774.1390201268921</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="X29" t="n">
-        <v>774.1390201268921</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y29" t="n">
-        <v>522.7298813483483</v>
+        <v>991.8142391843265</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.0007219977995</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="C30" t="n">
-        <v>345.0007219977995</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="D30" t="n">
-        <v>196.0663123365483</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="E30" t="n">
-        <v>36.82885733109276</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="F30" t="n">
         <v>19.91160379126067</v>
@@ -6554,40 +6554,40 @@
         <v>384.3776295799436</v>
       </c>
       <c r="N30" t="n">
-        <v>630.7837264967943</v>
+        <v>574.8576805336198</v>
       </c>
       <c r="O30" t="n">
-        <v>782.8159646221726</v>
+        <v>726.8899186589981</v>
       </c>
       <c r="P30" t="n">
-        <v>976.8563751608905</v>
+        <v>973.2960155758489</v>
       </c>
       <c r="Q30" t="n">
         <v>995.5801895630334</v>
       </c>
       <c r="R30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="S30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="T30" t="n">
-        <v>972.4766980019442</v>
+        <v>995.5801895630334</v>
       </c>
       <c r="U30" t="n">
-        <v>972.4766980019442</v>
+        <v>767.4392917408106</v>
       </c>
       <c r="V30" t="n">
-        <v>972.4766980019442</v>
+        <v>532.287183509068</v>
       </c>
       <c r="W30" t="n">
-        <v>721.0675592234004</v>
+        <v>280.8780447305242</v>
       </c>
       <c r="X30" t="n">
-        <v>513.2160590178676</v>
+        <v>73.02654452499132</v>
       </c>
       <c r="Y30" t="n">
-        <v>513.2160590178676</v>
+        <v>19.91160379126067</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.8477867191676</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="C31" t="n">
-        <v>19.91160379126067</v>
+        <v>487.0479233251007</v>
       </c>
       <c r="D31" t="n">
-        <v>19.91160379126067</v>
+        <v>487.0479233251007</v>
       </c>
       <c r="E31" t="n">
-        <v>19.91160379126067</v>
+        <v>487.0479233251007</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91160379126067</v>
+        <v>487.0479233251007</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91160379126067</v>
+        <v>318.4141859846249</v>
       </c>
       <c r="H31" t="n">
-        <v>19.91160379126067</v>
+        <v>163.9204455710235</v>
       </c>
       <c r="I31" t="n">
-        <v>19.91160379126067</v>
+        <v>38.60004506332933</v>
       </c>
       <c r="J31" t="n">
         <v>19.91160379126067</v>
       </c>
       <c r="K31" t="n">
-        <v>117.89730848105</v>
+        <v>117.8973084810498</v>
       </c>
       <c r="L31" t="n">
-        <v>298.8117097895529</v>
+        <v>298.8117097895528</v>
       </c>
       <c r="M31" t="n">
-        <v>499.9497029930581</v>
+        <v>499.9497029930579</v>
       </c>
       <c r="N31" t="n">
-        <v>701.7397007055569</v>
+        <v>701.7397007055567</v>
       </c>
       <c r="O31" t="n">
-        <v>872.1091287361198</v>
+        <v>872.1091287361197</v>
       </c>
       <c r="P31" t="n">
         <v>994.3689244155619</v>
@@ -6645,28 +6645,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R31" t="n">
-        <v>995.5801895630334</v>
+        <v>863.893051071894</v>
       </c>
       <c r="S31" t="n">
-        <v>995.5801895630334</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="T31" t="n">
-        <v>995.5801895630334</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="U31" t="n">
-        <v>873.3145291064949</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="V31" t="n">
-        <v>621.9053903279511</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="W31" t="n">
-        <v>370.4962515494072</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="X31" t="n">
-        <v>370.4962515494072</v>
+        <v>655.9841062530076</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.4962515494072</v>
+        <v>655.9841062530076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>522.7298813483483</v>
+        <v>740.4051004057827</v>
       </c>
       <c r="C32" t="n">
-        <v>522.7298813483483</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="D32" t="n">
-        <v>522.7298813483483</v>
+        <v>488.9959616272389</v>
       </c>
       <c r="E32" t="n">
-        <v>271.3207425698045</v>
+        <v>237.5868228486951</v>
       </c>
       <c r="F32" t="n">
         <v>19.91160379126067</v>
@@ -6724,28 +6724,28 @@
         <v>995.5801895630334</v>
       </c>
       <c r="R32" t="n">
-        <v>995.5801895630334</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="S32" t="n">
-        <v>837.9989992848266</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="T32" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="U32" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="V32" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="W32" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="X32" t="n">
-        <v>622.9366983304767</v>
+        <v>991.8142391843265</v>
       </c>
       <c r="Y32" t="n">
-        <v>622.9366983304767</v>
+        <v>740.4051004057827</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>258.6108532961887</v>
+        <v>325.6836167698312</v>
       </c>
       <c r="C33" t="n">
-        <v>258.6108532961887</v>
+        <v>325.6836167698312</v>
       </c>
       <c r="D33" t="n">
-        <v>258.6108532961887</v>
+        <v>325.6836167698312</v>
       </c>
       <c r="E33" t="n">
-        <v>258.6108532961887</v>
+        <v>166.4461617643757</v>
       </c>
       <c r="F33" t="n">
-        <v>258.6108532961887</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="G33" t="n">
-        <v>121.1373785879038</v>
+        <v>19.91160379126067</v>
       </c>
       <c r="H33" t="n">
         <v>19.91160379126067</v>
@@ -6779,25 +6779,25 @@
         <v>19.91160379126067</v>
       </c>
       <c r="J33" t="n">
-        <v>19.91160379126067</v>
+        <v>135.6005847439773</v>
       </c>
       <c r="K33" t="n">
-        <v>82.4427573815868</v>
+        <v>198.1317383343035</v>
       </c>
       <c r="L33" t="n">
-        <v>212.846151362585</v>
+        <v>328.5351323153017</v>
       </c>
       <c r="M33" t="n">
-        <v>384.3776295799436</v>
+        <v>500.0666105326603</v>
       </c>
       <c r="N33" t="n">
-        <v>574.8576805336198</v>
+        <v>690.5466614863366</v>
       </c>
       <c r="O33" t="n">
-        <v>726.8899186589981</v>
+        <v>842.5788996117149</v>
       </c>
       <c r="P33" t="n">
-        <v>829.576126910212</v>
+        <v>945.2651078629287</v>
       </c>
       <c r="Q33" t="n">
         <v>995.5801895630334</v>
@@ -6806,25 +6806,25 @@
         <v>995.5801895630334</v>
       </c>
       <c r="S33" t="n">
-        <v>995.5801895630334</v>
+        <v>981.9716432455168</v>
       </c>
       <c r="T33" t="n">
-        <v>798.4616006308456</v>
+        <v>784.8530543133289</v>
       </c>
       <c r="U33" t="n">
-        <v>570.3207028086229</v>
+        <v>784.8530543133289</v>
       </c>
       <c r="V33" t="n">
-        <v>335.1685945768801</v>
+        <v>784.8530543133289</v>
       </c>
       <c r="W33" t="n">
-        <v>258.6108532961887</v>
+        <v>533.4439155347851</v>
       </c>
       <c r="X33" t="n">
-        <v>258.6108532961887</v>
+        <v>533.4439155347851</v>
       </c>
       <c r="Y33" t="n">
-        <v>258.6108532961887</v>
+        <v>325.6836167698312</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.91160379126067</v>
+        <v>759.087867719501</v>
       </c>
       <c r="C34" t="n">
-        <v>19.91160379126067</v>
+        <v>590.1516847915941</v>
       </c>
       <c r="D34" t="n">
-        <v>19.91160379126067</v>
+        <v>440.0350453792583</v>
       </c>
       <c r="E34" t="n">
-        <v>19.91160379126067</v>
+        <v>292.1219517968652</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="H34" t="n">
-        <v>19.91160379126067</v>
+        <v>145.2320042989549</v>
       </c>
       <c r="I34" t="n">
         <v>19.91160379126067</v>
@@ -6882,28 +6882,28 @@
         <v>995.5801895630335</v>
       </c>
       <c r="R34" t="n">
-        <v>863.8930510718941</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="S34" t="n">
-        <v>655.9841062530077</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="T34" t="n">
-        <v>522.7298813483483</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="U34" t="n">
-        <v>271.3207425698045</v>
+        <v>995.5801895630335</v>
       </c>
       <c r="V34" t="n">
-        <v>271.3207425698045</v>
+        <v>759.087867719501</v>
       </c>
       <c r="W34" t="n">
-        <v>19.91160379126067</v>
+        <v>759.087867719501</v>
       </c>
       <c r="X34" t="n">
-        <v>19.91160379126067</v>
+        <v>759.087867719501</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.91160379126067</v>
+        <v>759.087867719501</v>
       </c>
     </row>
     <row r="35">
@@ -6937,16 +6937,16 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J35" t="n">
-        <v>34.05974234075562</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K35" t="n">
-        <v>109.1485562061083</v>
+        <v>109.1485562061088</v>
       </c>
       <c r="L35" t="n">
-        <v>239.2046314711337</v>
+        <v>239.2046314711342</v>
       </c>
       <c r="M35" t="n">
-        <v>415.5865117704855</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N35" t="n">
         <v>599.4362436734923</v>
@@ -6967,19 +6967,19 @@
         <v>886.86268555103</v>
       </c>
       <c r="T35" t="n">
-        <v>671.8003845966801</v>
+        <v>886.86268555103</v>
       </c>
       <c r="U35" t="n">
-        <v>467.6250151073508</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="V35" t="n">
-        <v>467.6250151073508</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="W35" t="n">
-        <v>467.6250151073508</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="X35" t="n">
-        <v>467.6250151073508</v>
+        <v>437.0502431622741</v>
       </c>
       <c r="Y35" t="n">
         <v>242.7187939129728</v>
@@ -7016,22 +7016,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J36" t="n">
-        <v>62.24029840864262</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K36" t="n">
-        <v>124.7714519989688</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L36" t="n">
-        <v>255.1748459799669</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M36" t="n">
-        <v>426.7063241973256</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N36" t="n">
-        <v>617.1863751510018</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O36" t="n">
-        <v>769.2186132763801</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P36" t="n">
         <v>871.904821527594</v>
@@ -7046,19 +7046,19 @@
         <v>890.6286359297369</v>
       </c>
       <c r="T36" t="n">
-        <v>890.6286359297369</v>
+        <v>693.5100469975491</v>
       </c>
       <c r="U36" t="n">
-        <v>665.7224147353588</v>
+        <v>658.3305928834595</v>
       </c>
       <c r="V36" t="n">
-        <v>440.8161935409808</v>
+        <v>658.3305928834595</v>
       </c>
       <c r="W36" t="n">
-        <v>215.9099723466028</v>
+        <v>433.4243716890815</v>
       </c>
       <c r="X36" t="n">
-        <v>17.81257271859474</v>
+        <v>225.5728714835487</v>
       </c>
       <c r="Y36" t="n">
         <v>17.81257271859474</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="C37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="D37" t="n">
-        <v>501.0252270439825</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="E37" t="n">
-        <v>353.1121334615893</v>
+        <v>309.9003763340793</v>
       </c>
       <c r="F37" t="n">
-        <v>206.222185963679</v>
+        <v>309.9003763340793</v>
       </c>
       <c r="G37" t="n">
-        <v>37.58844862320321</v>
+        <v>297.6267136398902</v>
       </c>
       <c r="H37" t="n">
-        <v>37.58844862320321</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I37" t="n">
-        <v>37.58844862320321</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="J37" t="n">
         <v>17.81257271859474</v>
@@ -7104,16 +7104,16 @@
         <v>296.7126787168869</v>
       </c>
       <c r="M37" t="n">
-        <v>394.9981493597614</v>
+        <v>396.209414507233</v>
       </c>
       <c r="N37" t="n">
-        <v>596.7881470722602</v>
+        <v>597.9994122197318</v>
       </c>
       <c r="O37" t="n">
-        <v>767.1575751028232</v>
+        <v>768.3688402502947</v>
       </c>
       <c r="P37" t="n">
-        <v>889.4173707822654</v>
+        <v>890.6286359297369</v>
       </c>
       <c r="Q37" t="n">
         <v>890.6286359297369</v>
@@ -7122,25 +7122,25 @@
         <v>890.6286359297369</v>
       </c>
       <c r="S37" t="n">
-        <v>890.6286359297369</v>
+        <v>682.7196911108505</v>
       </c>
       <c r="T37" t="n">
-        <v>890.6286359297369</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="U37" t="n">
-        <v>876.0480876506963</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="V37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="W37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="X37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
       <c r="Y37" t="n">
-        <v>651.1418664563182</v>
+        <v>457.8134699164725</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.6250151073508</v>
+        <v>437.050243162274</v>
       </c>
       <c r="C38" t="n">
-        <v>242.7187939129728</v>
+        <v>212.144021967896</v>
       </c>
       <c r="D38" t="n">
-        <v>242.7187939129728</v>
+        <v>212.144021967896</v>
       </c>
       <c r="E38" t="n">
-        <v>242.7187939129728</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="F38" t="n">
         <v>17.81257271859474</v>
@@ -7174,7 +7174,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J38" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075597</v>
       </c>
       <c r="K38" t="n">
         <v>109.1485562061088</v>
@@ -7183,13 +7183,13 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M38" t="n">
-        <v>415.5865117704856</v>
+        <v>415.5865117704858</v>
       </c>
       <c r="N38" t="n">
         <v>599.4362436734924</v>
       </c>
       <c r="O38" t="n">
-        <v>759.7050708974405</v>
+        <v>759.7050708974406</v>
       </c>
       <c r="P38" t="n">
         <v>861.9898061237598</v>
@@ -7201,25 +7201,25 @@
         <v>886.8626855510302</v>
       </c>
       <c r="S38" t="n">
-        <v>729.2814952728233</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="T38" t="n">
-        <v>729.2814952728233</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U38" t="n">
-        <v>729.2814952728233</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="V38" t="n">
-        <v>729.2814952728233</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="W38" t="n">
-        <v>729.2814952728233</v>
+        <v>437.050243162274</v>
       </c>
       <c r="X38" t="n">
-        <v>729.2814952728233</v>
+        <v>437.050243162274</v>
       </c>
       <c r="Y38" t="n">
-        <v>504.3752740784453</v>
+        <v>437.050243162274</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.81257271859474</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="C39" t="n">
-        <v>17.81257271859474</v>
+        <v>491.269385454232</v>
       </c>
       <c r="D39" t="n">
-        <v>17.81257271859474</v>
+        <v>491.269385454232</v>
       </c>
       <c r="E39" t="n">
-        <v>17.81257271859474</v>
+        <v>403.0463801966379</v>
       </c>
       <c r="F39" t="n">
-        <v>17.81257271859474</v>
+        <v>256.5118222235228</v>
       </c>
       <c r="G39" t="n">
-        <v>17.81257271859474</v>
+        <v>119.0383475152379</v>
       </c>
       <c r="H39" t="n">
         <v>17.81257271859474</v>
@@ -7277,28 +7277,28 @@
         <v>890.628635929737</v>
       </c>
       <c r="R39" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="S39" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T39" t="n">
-        <v>867.5251443686478</v>
+        <v>890.628635929737</v>
       </c>
       <c r="U39" t="n">
-        <v>642.6189231742698</v>
+        <v>890.628635929737</v>
       </c>
       <c r="V39" t="n">
-        <v>417.7127019798917</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="W39" t="n">
-        <v>225.6640729241276</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="X39" t="n">
-        <v>17.81257271859474</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.81257271859474</v>
+        <v>665.7224147353589</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="C40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="D40" t="n">
-        <v>340.9400504726718</v>
+        <v>320.2194067145891</v>
       </c>
       <c r="E40" t="n">
-        <v>340.9400504726718</v>
+        <v>172.306313132196</v>
       </c>
       <c r="F40" t="n">
-        <v>340.9400504726718</v>
+        <v>172.306313132196</v>
       </c>
       <c r="G40" t="n">
         <v>172.306313132196</v>
@@ -7338,10 +7338,10 @@
         <v>17.81257271859474</v>
       </c>
       <c r="L40" t="n">
-        <v>193.8601561562564</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M40" t="n">
-        <v>394.9981493597616</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N40" t="n">
         <v>596.7881470722604</v>
@@ -7359,25 +7359,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S40" t="n">
-        <v>790.752492861428</v>
+        <v>890.628635929737</v>
       </c>
       <c r="T40" t="n">
-        <v>565.8462716670499</v>
+        <v>665.7224147353589</v>
       </c>
       <c r="U40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="V40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="W40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="X40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
       <c r="Y40" t="n">
-        <v>340.9400504726718</v>
+        <v>440.8161935409809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.144021967896</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="C41" t="n">
-        <v>212.144021967896</v>
+        <v>661.9564643566521</v>
       </c>
       <c r="D41" t="n">
-        <v>212.144021967896</v>
+        <v>467.6250151073508</v>
       </c>
       <c r="E41" t="n">
-        <v>212.144021967896</v>
+        <v>242.7187939129728</v>
       </c>
       <c r="F41" t="n">
-        <v>212.144021967896</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="G41" t="n">
-        <v>212.144021967896</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="H41" t="n">
         <v>17.81257271859474</v>
@@ -7411,7 +7411,7 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J41" t="n">
-        <v>34.05974234075597</v>
+        <v>34.05974234075607</v>
       </c>
       <c r="K41" t="n">
         <v>109.1485562061088</v>
@@ -7420,13 +7420,13 @@
         <v>239.2046314711342</v>
       </c>
       <c r="M41" t="n">
-        <v>415.5865117704858</v>
+        <v>415.586511770486</v>
       </c>
       <c r="N41" t="n">
         <v>599.4362436734924</v>
       </c>
       <c r="O41" t="n">
-        <v>759.7050708974406</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P41" t="n">
         <v>861.9898061237598</v>
@@ -7444,19 +7444,19 @@
         <v>886.8626855510302</v>
       </c>
       <c r="U41" t="n">
+        <v>886.8626855510302</v>
+      </c>
+      <c r="V41" t="n">
+        <v>886.8626855510302</v>
+      </c>
+      <c r="W41" t="n">
+        <v>886.8626855510302</v>
+      </c>
+      <c r="X41" t="n">
         <v>661.9564643566521</v>
       </c>
-      <c r="V41" t="n">
-        <v>437.050243162274</v>
-      </c>
-      <c r="W41" t="n">
-        <v>212.144021967896</v>
-      </c>
-      <c r="X41" t="n">
-        <v>212.144021967896</v>
-      </c>
       <c r="Y41" t="n">
-        <v>212.144021967896</v>
+        <v>661.9564643566521</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.81257271859474</v>
+        <v>475.0168369592503</v>
       </c>
       <c r="C42" t="n">
-        <v>17.81257271859474</v>
+        <v>475.0168369592503</v>
       </c>
       <c r="D42" t="n">
-        <v>17.81257271859474</v>
+        <v>326.082427297999</v>
       </c>
       <c r="E42" t="n">
-        <v>17.81257271859474</v>
+        <v>166.8449722925435</v>
       </c>
       <c r="F42" t="n">
-        <v>17.81257271859474</v>
+        <v>20.31041431942847</v>
       </c>
       <c r="G42" t="n">
         <v>17.81257271859474</v>
@@ -7490,19 +7490,19 @@
         <v>17.81257271859474</v>
       </c>
       <c r="J42" t="n">
-        <v>62.24029840864273</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="K42" t="n">
-        <v>124.7714519989689</v>
+        <v>80.34372630892088</v>
       </c>
       <c r="L42" t="n">
-        <v>255.174845979967</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M42" t="n">
-        <v>426.7063241973257</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N42" t="n">
-        <v>617.1863751510019</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O42" t="n">
         <v>769.2186132763802</v>
@@ -7523,19 +7523,19 @@
         <v>890.628635929737</v>
       </c>
       <c r="U42" t="n">
-        <v>665.7224147353589</v>
+        <v>890.628635929737</v>
       </c>
       <c r="V42" t="n">
-        <v>440.8161935409809</v>
+        <v>890.628635929737</v>
       </c>
       <c r="W42" t="n">
-        <v>215.9099723466028</v>
+        <v>890.628635929737</v>
       </c>
       <c r="X42" t="n">
-        <v>17.81257271859474</v>
+        <v>682.7771357242042</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.81257271859474</v>
+        <v>475.0168369592503</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="C43" t="n">
-        <v>186.4463100590706</v>
+        <v>590.0053145106907</v>
       </c>
       <c r="D43" t="n">
-        <v>186.4463100590706</v>
+        <v>590.0053145106907</v>
       </c>
       <c r="E43" t="n">
-        <v>186.4463100590706</v>
+        <v>458.6566580646752</v>
       </c>
       <c r="F43" t="n">
-        <v>186.4463100590706</v>
+        <v>311.7667105667648</v>
       </c>
       <c r="G43" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="H43" t="n">
-        <v>17.81257271859474</v>
+        <v>143.132973226289</v>
       </c>
       <c r="I43" t="n">
         <v>17.81257271859474</v>
@@ -7572,19 +7572,19 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K43" t="n">
-        <v>17.81257271859474</v>
+        <v>115.7982774083839</v>
       </c>
       <c r="L43" t="n">
-        <v>195.0714213037279</v>
+        <v>296.7126787168869</v>
       </c>
       <c r="M43" t="n">
-        <v>396.2094145072331</v>
+        <v>497.8506719203921</v>
       </c>
       <c r="N43" t="n">
-        <v>597.9994122197319</v>
+        <v>699.6406696328909</v>
       </c>
       <c r="O43" t="n">
-        <v>768.3688402502949</v>
+        <v>870.0100976634538</v>
       </c>
       <c r="P43" t="n">
         <v>890.628635929737</v>
@@ -7599,22 +7599,22 @@
         <v>758.9414974385976</v>
       </c>
       <c r="T43" t="n">
-        <v>534.0352762442195</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="U43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="V43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="W43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="X43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
       <c r="Y43" t="n">
-        <v>309.1290550498414</v>
+        <v>758.9414974385976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.6250151073508</v>
+        <v>814.5355005871708</v>
       </c>
       <c r="C44" t="n">
-        <v>467.6250151073508</v>
+        <v>589.6292793927927</v>
       </c>
       <c r="D44" t="n">
-        <v>467.6250151073508</v>
+        <v>589.6292793927927</v>
       </c>
       <c r="E44" t="n">
-        <v>467.6250151073508</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="F44" t="n">
-        <v>242.7187939129728</v>
+        <v>364.7230581984146</v>
       </c>
       <c r="G44" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="H44" t="n">
-        <v>17.81257271859474</v>
+        <v>139.8168370040366</v>
       </c>
       <c r="I44" t="n">
         <v>17.81257271859474</v>
       </c>
       <c r="J44" t="n">
-        <v>34.05974234075607</v>
+        <v>34.05974234075573</v>
       </c>
       <c r="K44" t="n">
-        <v>109.1485562061088</v>
+        <v>109.1485562061084</v>
       </c>
       <c r="L44" t="n">
-        <v>239.2046314711342</v>
+        <v>239.2046314711338</v>
       </c>
       <c r="M44" t="n">
-        <v>415.586511770486</v>
+        <v>415.5865117704856</v>
       </c>
       <c r="N44" t="n">
-        <v>599.4362436734928</v>
+        <v>599.4362436734924</v>
       </c>
       <c r="O44" t="n">
-        <v>759.7050708974408</v>
+        <v>759.7050708974405</v>
       </c>
       <c r="P44" t="n">
-        <v>861.9898061237601</v>
+        <v>861.9898061237598</v>
       </c>
       <c r="Q44" t="n">
         <v>890.628635929737</v>
       </c>
       <c r="R44" t="n">
-        <v>890.628635929737</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="S44" t="n">
-        <v>890.628635929737</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="T44" t="n">
-        <v>890.628635929737</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="U44" t="n">
-        <v>692.5312363017289</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="V44" t="n">
-        <v>467.6250151073508</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="W44" t="n">
-        <v>467.6250151073508</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="X44" t="n">
-        <v>467.6250151073508</v>
+        <v>886.8626855510302</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.6250151073508</v>
+        <v>886.8626855510302</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.81257271859474</v>
+        <v>532.7145291267885</v>
       </c>
       <c r="C45" t="n">
-        <v>17.81257271859474</v>
+        <v>358.2614998456615</v>
       </c>
       <c r="D45" t="n">
-        <v>17.81257271859474</v>
+        <v>209.3270901844103</v>
       </c>
       <c r="E45" t="n">
-        <v>17.81257271859474</v>
+        <v>50.08963517895478</v>
       </c>
       <c r="F45" t="n">
-        <v>17.81257271859474</v>
+        <v>50.08963517895478</v>
       </c>
       <c r="G45" t="n">
         <v>17.81257271859474</v>
@@ -7733,19 +7733,19 @@
         <v>80.34372630892088</v>
       </c>
       <c r="L45" t="n">
-        <v>255.174845979967</v>
+        <v>210.7471202899191</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7063241973257</v>
+        <v>382.2785985072777</v>
       </c>
       <c r="N45" t="n">
-        <v>617.1863751510019</v>
+        <v>572.758649460954</v>
       </c>
       <c r="O45" t="n">
-        <v>769.2186132763802</v>
+        <v>724.7908875863322</v>
       </c>
       <c r="P45" t="n">
-        <v>871.9048215275941</v>
+        <v>827.4770958375461</v>
       </c>
       <c r="Q45" t="n">
         <v>890.628635929737</v>
@@ -7754,25 +7754,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S45" t="n">
-        <v>890.628635929737</v>
+        <v>740.5660293323214</v>
       </c>
       <c r="T45" t="n">
-        <v>890.628635929737</v>
+        <v>740.5660293323214</v>
       </c>
       <c r="U45" t="n">
-        <v>665.7224147353589</v>
+        <v>740.5660293323214</v>
       </c>
       <c r="V45" t="n">
-        <v>440.8161935409809</v>
+        <v>740.5660293323214</v>
       </c>
       <c r="W45" t="n">
-        <v>215.9099723466028</v>
+        <v>740.5660293323214</v>
       </c>
       <c r="X45" t="n">
-        <v>17.81257271859474</v>
+        <v>532.7145291267885</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.81257271859474</v>
+        <v>532.7145291267885</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>440.8161935409809</v>
+        <v>319.1962606301064</v>
       </c>
       <c r="C46" t="n">
-        <v>440.8161935409809</v>
+        <v>319.1962606301064</v>
       </c>
       <c r="D46" t="n">
-        <v>290.6995541286451</v>
+        <v>319.1962606301064</v>
       </c>
       <c r="E46" t="n">
-        <v>290.6995541286451</v>
+        <v>319.1962606301064</v>
       </c>
       <c r="F46" t="n">
-        <v>143.8096066307347</v>
+        <v>172.306313132196</v>
       </c>
       <c r="G46" t="n">
-        <v>17.81257271859474</v>
+        <v>172.306313132196</v>
       </c>
       <c r="H46" t="n">
         <v>17.81257271859474</v>
@@ -7809,22 +7809,22 @@
         <v>17.81257271859474</v>
       </c>
       <c r="K46" t="n">
-        <v>115.7982774083839</v>
+        <v>17.81257271859474</v>
       </c>
       <c r="L46" t="n">
-        <v>296.7126787168869</v>
+        <v>198.7269740270977</v>
       </c>
       <c r="M46" t="n">
-        <v>497.8506719203921</v>
+        <v>399.8649672306029</v>
       </c>
       <c r="N46" t="n">
-        <v>699.6406696328909</v>
+        <v>601.6549649431017</v>
       </c>
       <c r="O46" t="n">
-        <v>870.0100976634538</v>
+        <v>772.0243929736647</v>
       </c>
       <c r="P46" t="n">
-        <v>890.628635929737</v>
+        <v>889.4173707822655</v>
       </c>
       <c r="Q46" t="n">
         <v>890.628635929737</v>
@@ -7833,25 +7833,25 @@
         <v>890.628635929737</v>
       </c>
       <c r="S46" t="n">
-        <v>890.628635929737</v>
+        <v>764.8950609680146</v>
       </c>
       <c r="T46" t="n">
-        <v>665.7224147353589</v>
+        <v>764.8950609680146</v>
       </c>
       <c r="U46" t="n">
-        <v>440.8161935409809</v>
+        <v>539.9888397736365</v>
       </c>
       <c r="V46" t="n">
-        <v>440.8161935409809</v>
+        <v>539.9888397736365</v>
       </c>
       <c r="W46" t="n">
-        <v>440.8161935409809</v>
+        <v>539.9888397736365</v>
       </c>
       <c r="X46" t="n">
-        <v>440.8161935409809</v>
+        <v>539.9888397736365</v>
       </c>
       <c r="Y46" t="n">
-        <v>440.8161935409809</v>
+        <v>319.1962606301064</v>
       </c>
     </row>
   </sheetData>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.87649059600813</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.87649059600794</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,10 +8850,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>157.5587238942401</v>
       </c>
       <c r="M13" t="n">
         <v>178.5096609094456</v>
@@ -8865,10 +8865,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>32.33862653307233</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>44.87649059600795</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.87649059600815</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,10 +9102,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3140858156876</v>
+        <v>31.11512638411142</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>54.10996941852118</v>
+        <v>54.1099694185214</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9339,10 +9339,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>31.11512638411119</v>
+        <v>131.3140858156879</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>44.87649059600864</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.87649059600794</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,7 +9564,7 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L22" t="n">
-        <v>158.782224043201</v>
+        <v>158.7822240432017</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>9.23347882251322</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>117.1744474099521</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>31.59348011598564</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>31.91037100804217</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9886,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>63.18824748873129</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>40.70318944119811</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>103.8914369299295</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>145.1716047127645</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.596322813173369</v>
+        <v>148.7679275259379</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>56.49095551835811</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.27697200757976</v>
+        <v>145.1716047127645</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>3.596322813173369</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>9.23347882251322</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>148.7679275259379</v>
+        <v>31.91037100804217</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>54.10996941852118</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>44.8764905960079</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>74.61822397951575</v>
+        <v>75.84172412847687</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10764,7 +10764,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>64.11945822879035</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>7.768307062037181</v>
       </c>
       <c r="L40" t="n">
-        <v>157.55872389424</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>166.9017391971473</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>54.1099694185213</v>
+        <v>9.23347882251322</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>44.87649059600804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11220,10 +11220,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>7.768307062037181</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>158.7822240432011</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
         <v>178.5096609094456</v>
@@ -11235,7 +11235,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>32.33862653307244</v>
       </c>
       <c r="Q43" t="n">
         <v>64.11945822879035</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>44.87649059600807</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>44.87649059600805</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>7.768307062037181</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11472,10 +11472,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>32.33862653307244</v>
+        <v>130.0905856667266</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.11945822879035</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>160.0766826810463</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>132.0258826382487</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>190.3190972947054</v>
+        <v>190.3190972947053</v>
       </c>
       <c r="H11" t="n">
         <v>315.6487261371466</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S11" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T11" t="n">
-        <v>212.9116779448064</v>
+        <v>16.79525231307835</v>
       </c>
       <c r="U11" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V11" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>156.8528339606047</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>140.1271619312584</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>118.5779326240355</v>
       </c>
       <c r="G12" t="n">
         <v>136.0987399612021</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>46.53917216822466</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>148.5619805314415</v>
@@ -23393,19 +23393,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U12" t="n">
-        <v>3.202329861566341</v>
+        <v>3.202329861566284</v>
       </c>
       <c r="V12" t="n">
-        <v>10.14342816699104</v>
+        <v>10.14342816699099</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>29.03782417848532</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>97.25851804470051</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190088721</v>
       </c>
       <c r="U13" t="n">
-        <v>69.24587197042922</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415672</v>
       </c>
       <c r="X13" t="n">
-        <v>3.052496406602927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>190.3190972947054</v>
+        <v>190.3190972947053</v>
       </c>
       <c r="H14" t="n">
-        <v>315.6487261371466</v>
+        <v>92.9915671547123</v>
       </c>
       <c r="I14" t="n">
         <v>120.7842216425874</v>
@@ -23551,19 +23551,19 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636259</v>
       </c>
       <c r="V14" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6146750467411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>190.1215130243255</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>88.75203601538038</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I15" t="n">
         <v>46.53917216822466</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V15" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>139.0907745322246</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.2367933310644</v>
+        <v>79.6748894974312</v>
       </c>
       <c r="G16" t="n">
         <v>166.947399967071</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T16" t="n">
-        <v>223.4866593014432</v>
+        <v>0.8295003190088721</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2621068442334</v>
+        <v>63.60494786179908</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>63.86583935415678</v>
+        <v>63.86583935415672</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,13 +23737,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>132.0258826382487</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2732110898276</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>360.7478083227</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>412.9762562771396</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>20.52354318799814</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1595344087969</v>
+        <v>28.50237542636259</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349787</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>100.2135170486767</v>
       </c>
       <c r="I18" t="n">
-        <v>46.53917216822466</v>
+        <v>39.06886442448079</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8594888440006</v>
+        <v>3.202329861566284</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>68.80285762246692</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.947399967071</v>
+        <v>137.5672911480679</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J19" t="n">
         <v>19.57811714556239</v>
@@ -23940,19 +23940,19 @@
         <v>130.370267106228</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T19" t="n">
-        <v>64.90177058762671</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U19" t="n">
-        <v>63.60494786179913</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>63.86583935415672</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>184.218886759277</v>
       </c>
       <c r="G20" t="n">
         <v>412.9762562771396</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>156.0053783754247</v>
       </c>
       <c r="T20" t="n">
-        <v>16.79525231307835</v>
+        <v>20.52354318799803</v>
       </c>
       <c r="U20" t="n">
-        <v>28.50237542636265</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V20" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960346</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>163.5807796736192</v>
       </c>
     </row>
     <row r="21">
@@ -24059,13 +24059,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I21" t="n">
         <v>46.53917216822466</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>86.86243924253992</v>
+        <v>3.20232986156617</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>182.5287755614127</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.947399967071</v>
@@ -24147,7 +24147,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J22" t="n">
         <v>19.57811714556239</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.829500319008929</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U22" t="n">
-        <v>268.7649361620953</v>
+        <v>69.24587197042874</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>29.48048434139361</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802492</v>
       </c>
       <c r="D23" t="n">
         <v>105.7879942299246</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>353.4831677857042</v>
+        <v>412.9762562771396</v>
       </c>
       <c r="H23" t="n">
-        <v>315.6487261371466</v>
+        <v>66.75367874638823</v>
       </c>
       <c r="I23" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.728290874919821</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T23" t="n">
         <v>212.9116779448064</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1595344087969</v>
+        <v>152.7169983096044</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>120.8360532877107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,10 +24290,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>100.2135170486767</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.5947542031027</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,19 +24335,19 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S24" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>69.35034799293987</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>2.799935770161255</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.947399967071</v>
+        <v>92.07187495505001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T25" t="n">
         <v>223.4866593014432</v>
@@ -24423,13 +24423,13 @@
         <v>286.2621068442334</v>
       </c>
       <c r="V25" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.9944595824944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133.8387942727222</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>116.3778443802492</v>
+        <v>146.0461340292277</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9762562771396</v>
+        <v>164.0812088863813</v>
       </c>
       <c r="H26" t="n">
-        <v>96.42196839536669</v>
+        <v>66.75367874638823</v>
       </c>
       <c r="I26" t="n">
         <v>120.7842216425874</v>
@@ -24502,7 +24502,7 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>78.85721107937655</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>87.26110553967322</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>100.2135170486767</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.87245664547834</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>148.5619805314415</v>
       </c>
       <c r="T27" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8594888440006</v>
       </c>
       <c r="V27" t="n">
-        <v>36.56159458474184</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>2.799935770161255</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I28" t="n">
-        <v>112.6519815239113</v>
+        <v>124.0671965026173</v>
       </c>
       <c r="J28" t="n">
         <v>19.57811714556239</v>
@@ -24657,10 +24657,10 @@
         <v>223.4866593014432</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2621068442334</v>
+        <v>246.6323183096031</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>3.242595933069651</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>167.2353747966205</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>133.0353226815034</v>
       </c>
       <c r="F29" t="n">
         <v>157.9809983509531</v>
@@ -24739,7 +24739,7 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V29" t="n">
-        <v>112.2537916032748</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>137.3428912652952</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>128.3211313889501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.0987399612021</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S30" t="n">
         <v>148.5619805314415</v>
@@ -24815,10 +24815,10 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8594888440006</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>2.799935770161255</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>153.098904450911</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.947399967071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.57811714556239</v>
+        <v>1.076560286214409</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.370267106228</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.4866593014432</v>
       </c>
       <c r="U31" t="n">
-        <v>165.2191029922602</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V31" t="n">
-        <v>3.242595933069651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>37.62795094583265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.5290928511735</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>116.3778443802492</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>133.0353226815034</v>
       </c>
       <c r="F32" t="n">
-        <v>157.9809983509531</v>
+        <v>191.3775788748513</v>
       </c>
       <c r="G32" t="n">
         <v>412.9762562771396</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U32" t="n">
         <v>251.1595344087969</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>137.3428912652952</v>
       </c>
     </row>
     <row r="33">
@@ -25004,16 +25004,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0987399612021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.2135170486767</v>
       </c>
       <c r="I33" t="n">
         <v>46.53917216822466</v>
@@ -25046,25 +25046,25 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5619805314415</v>
+        <v>135.0895196771001</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>175.9028192930351</v>
+        <v>2.799935770161255</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.947399967071</v>
@@ -25095,7 +25095,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I34" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>19.57811714556239</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.370267106228</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T34" t="n">
-        <v>91.56497664583037</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U34" t="n">
-        <v>37.36705945347501</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>18.01024469873082</v>
       </c>
       <c r="W34" t="n">
-        <v>37.62795094583265</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25207,10 +25207,10 @@
         <v>156.0053783754247</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9116779448064</v>
       </c>
       <c r="U35" t="n">
-        <v>49.02591861436085</v>
+        <v>28.50237542636265</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5807796736194</v>
+        <v>193.8498038992453</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>148.5619805314415</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1474030428659</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.202329861566341</v>
+        <v>191.0318292710519</v>
       </c>
       <c r="V36" t="n">
-        <v>10.14342816699104</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>29.03782417848538</v>
       </c>
       <c r="X36" t="n">
-        <v>9.656559571749511</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>154.7964738998238</v>
       </c>
       <c r="H37" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>19.57811714556239</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>130.370267106228</v>
       </c>
       <c r="S37" t="n">
-        <v>205.8298553706975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.4866593014432</v>
+        <v>0.829500319008929</v>
       </c>
       <c r="U37" t="n">
-        <v>271.8273640479832</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V37" t="n">
-        <v>29.48048434139378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>346.3510852820971</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>142.6157327885733</v>
@@ -25399,10 +25399,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>189.5422353154536</v>
       </c>
       <c r="F38" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.9762562771396</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>156.0053783754247</v>
       </c>
       <c r="T38" t="n">
         <v>212.9116779448064</v>
@@ -25450,16 +25450,16 @@
         <v>251.1595344087969</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>105.0950994877007</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>126.5838097349788</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5807796736193</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>70.30430525038281</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0987399612021</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>100.2135170486767</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>46.53917216822466</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.87245664547834</v>
       </c>
       <c r="S39" t="n">
         <v>148.5619805314415</v>
@@ -25526,16 +25526,16 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U39" t="n">
-        <v>3.202329861566312</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V39" t="n">
         <v>10.14342816699101</v>
       </c>
       <c r="W39" t="n">
-        <v>61.56684039571314</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>29.22465406008455</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>130.370267106228</v>
       </c>
       <c r="S40" t="n">
-        <v>106.9524737330716</v>
+        <v>205.8298553706975</v>
       </c>
       <c r="T40" t="n">
         <v>0.8295003190089005</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>162.2949068638747</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898275</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>184.2188867592772</v>
       </c>
       <c r="G41" t="n">
         <v>412.9762562771396</v>
       </c>
       <c r="H41" t="n">
-        <v>123.2605913803384</v>
+        <v>315.6487261371466</v>
       </c>
       <c r="I41" t="n">
         <v>120.7842216425874</v>
@@ -25684,16 +25684,16 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U41" t="n">
-        <v>28.50237542636262</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V41" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5838097349788</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>147.0739416960348</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0987399612021</v>
+        <v>133.6258767763767</v>
       </c>
       <c r="H42" t="n">
         <v>100.2135170486767</v>
@@ -25763,19 +25763,19 @@
         <v>195.1474030428659</v>
       </c>
       <c r="U42" t="n">
-        <v>3.202329861566312</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V42" t="n">
-        <v>10.14342816699101</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>29.03782417848535</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>9.656559571749483</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>45.79090355776466</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>16.39879276501381</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>152.9488030094653</v>
       </c>
       <c r="I43" t="n">
-        <v>124.0671965026173</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>19.57811714556239</v>
@@ -25839,10 +25839,10 @@
         <v>205.8298553706975</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8295003190089005</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U43" t="n">
-        <v>63.6049478617991</v>
+        <v>286.2621068442334</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>311.1299285492598</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>142.6157327885733</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2732110898275</v>
       </c>
       <c r="F44" t="n">
-        <v>184.2188867592772</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>190.3190972947054</v>
@@ -25885,7 +25885,7 @@
         <v>315.6487261371466</v>
       </c>
       <c r="I44" t="n">
-        <v>120.7842216425874</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.728290874919821</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>156.0053783754247</v>
@@ -25921,10 +25921,10 @@
         <v>212.9116779448064</v>
       </c>
       <c r="U44" t="n">
-        <v>55.04310877706882</v>
+        <v>251.1595344087969</v>
       </c>
       <c r="V44" t="n">
-        <v>105.0950994877007</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0987399612021</v>
+        <v>104.1444481254456</v>
       </c>
       <c r="H45" t="n">
         <v>100.2135170486767</v>
@@ -25994,22 +25994,22 @@
         <v>22.87245664547834</v>
       </c>
       <c r="S45" t="n">
-        <v>148.5619805314415</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>195.1474030428659</v>
       </c>
       <c r="U45" t="n">
-        <v>3.202329861566312</v>
+        <v>225.8594888440006</v>
       </c>
       <c r="V45" t="n">
-        <v>10.14342816699101</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>29.03782417848535</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>9.656559571749483</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>42.21033639405245</v>
+        <v>166.947399967071</v>
       </c>
       <c r="H46" t="n">
-        <v>152.9488030094653</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>124.0671965026173</v>
@@ -26073,10 +26073,10 @@
         <v>130.370267106228</v>
       </c>
       <c r="S46" t="n">
-        <v>205.8298553706975</v>
+        <v>81.35361615859233</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8295003190089005</v>
+        <v>223.4866593014432</v>
       </c>
       <c r="U46" t="n">
         <v>63.6049478617991</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>415463.6494143604</v>
+        <v>415463.6494143605</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415463.6494143605</v>
+        <v>415463.6494143607</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>437519.7318673218</v>
+        <v>437519.7318673217</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>437519.7318673218</v>
+        <v>437519.7318673217</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415463.6494143604</v>
+        <v>415463.6494143606</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415463.6494143604</v>
+        <v>415463.6494143605</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019271</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="D2" t="n">
         <v>573493.437101927</v>
@@ -26325,13 +26325,13 @@
         <v>267968.8533859961</v>
       </c>
       <c r="F2" t="n">
+        <v>267968.8533859962</v>
+      </c>
+      <c r="G2" t="n">
         <v>267968.8533859961</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>267968.8533859962</v>
-      </c>
-      <c r="H2" t="n">
-        <v>267968.8533859961</v>
       </c>
       <c r="I2" t="n">
         <v>278375.2659136357</v>
@@ -26340,19 +26340,19 @@
         <v>278375.2659136357</v>
       </c>
       <c r="K2" t="n">
-        <v>278375.2659136356</v>
+        <v>278375.2659136357</v>
       </c>
       <c r="L2" t="n">
-        <v>278375.2659136356</v>
+        <v>278375.2659136357</v>
       </c>
       <c r="M2" t="n">
+        <v>267968.8533859961</v>
+      </c>
+      <c r="N2" t="n">
+        <v>267968.8533859961</v>
+      </c>
+      <c r="O2" t="n">
         <v>267968.8533859962</v>
-      </c>
-      <c r="N2" t="n">
-        <v>267968.8533859962</v>
-      </c>
-      <c r="O2" t="n">
-        <v>267968.8533859961</v>
       </c>
       <c r="P2" t="n">
         <v>267968.8533859962</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6977.205523429967</v>
+        <v>6977.205523429914</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>48948.46790415057</v>
+        <v>48948.46790415055</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>13703.44682813714</v>
+        <v>13703.44682813715</v>
       </c>
       <c r="F4" t="n">
-        <v>13703.44682813714</v>
+        <v>13703.44682813715</v>
       </c>
       <c r="G4" t="n">
-        <v>13703.44682813714</v>
+        <v>13703.44682813715</v>
       </c>
       <c r="H4" t="n">
-        <v>13703.44682813714</v>
+        <v>13703.44682813716</v>
       </c>
       <c r="I4" t="n">
         <v>20172.66271432693</v>
@@ -26444,7 +26444,7 @@
         <v>20172.66271432694</v>
       </c>
       <c r="K4" t="n">
-        <v>20172.66271432693</v>
+        <v>20172.66271432694</v>
       </c>
       <c r="L4" t="n">
         <v>20172.66271432693</v>
@@ -26487,7 +26487,7 @@
         <v>26153.48139947167</v>
       </c>
       <c r="H5" t="n">
-        <v>26153.48139947167</v>
+        <v>26153.48139947168</v>
       </c>
       <c r="I5" t="n">
         <v>27748.74501469778</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103547.8216039978</v>
+        <v>103587.5438048106</v>
       </c>
       <c r="C6" t="n">
-        <v>103547.8216039977</v>
+        <v>103587.5438048106</v>
       </c>
       <c r="D6" t="n">
-        <v>103547.8216039977</v>
+        <v>103587.5438048107</v>
       </c>
       <c r="E6" t="n">
-        <v>-314263.4561152673</v>
+        <v>-304403.3008664423</v>
       </c>
       <c r="F6" t="n">
-        <v>217156.1971041372</v>
+        <v>227016.3523529624</v>
       </c>
       <c r="G6" t="n">
-        <v>217156.1971041374</v>
+        <v>227016.3523529622</v>
       </c>
       <c r="H6" t="n">
-        <v>217156.1971041372</v>
+        <v>227016.3523529624</v>
       </c>
       <c r="I6" t="n">
-        <v>212892.5821972038</v>
+        <v>222418.2456147834</v>
       </c>
       <c r="J6" t="n">
-        <v>219869.7877206337</v>
+        <v>229395.4511382132</v>
       </c>
       <c r="K6" t="n">
-        <v>219869.7877206337</v>
+        <v>229395.4511382132</v>
       </c>
       <c r="L6" t="n">
-        <v>219869.7877206337</v>
+        <v>229395.4511382132</v>
       </c>
       <c r="M6" t="n">
-        <v>168207.7291999868</v>
+        <v>178067.8844488117</v>
       </c>
       <c r="N6" t="n">
-        <v>217156.1971041373</v>
+        <v>227016.3523529623</v>
       </c>
       <c r="O6" t="n">
-        <v>217156.1971041372</v>
+        <v>227016.3523529624</v>
       </c>
       <c r="P6" t="n">
-        <v>217156.1971041373</v>
+        <v>227016.3523529624</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="G4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="H4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824344</v>
       </c>
       <c r="I4" t="n">
         <v>248.8950473907584</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.23788840832415</v>
+        <v>26.23788840832395</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>222.6571589824342</v>
+        <v>222.6571589824343</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>89.69166792781849</v>
       </c>
       <c r="J44" t="n">
-        <v>197.4571869733139</v>
+        <v>197.4571869733136</v>
       </c>
       <c r="K44" t="n">
         <v>295.93713777766</v>
@@ -34389,7 +34389,7 @@
         <v>334.550910125289</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.2338007895777</v>
+        <v>251.233800789578</v>
       </c>
       <c r="R44" t="n">
         <v>146.1408270662299</v>
@@ -35506,10 +35506,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P12" t="n">
-        <v>103.7234426779939</v>
+        <v>148.599933274002</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.78943443655633</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>182.7418195035384</v>
+        <v>177.825841856224</v>
       </c>
       <c r="M13" t="n">
         <v>203.1696901045507</v>
@@ -35585,10 +35585,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P13" t="n">
-        <v>20.82680632957884</v>
+        <v>123.4947431105476</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M15" t="n">
-        <v>218.1406100074813</v>
+        <v>173.2641194114734</v>
       </c>
       <c r="N15" t="n">
         <v>192.4040918724002</v>
       </c>
       <c r="O15" t="n">
-        <v>153.5679172983619</v>
+        <v>198.4444078943701</v>
       </c>
       <c r="P15" t="n">
         <v>103.7234426779939</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L16" t="n">
         <v>182.7418195035384</v>
@@ -35822,10 +35822,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8022656121941</v>
+        <v>19.60330618061794</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q17" t="n">
-        <v>28.92811091512808</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>44.87649059600796</v>
+        <v>44.87649059600818</v>
       </c>
       <c r="K18" t="n">
         <v>63.16278140436984</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>182.7418195035384</v>
@@ -36059,10 +36059,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P19" t="n">
-        <v>19.60330618061771</v>
+        <v>119.8022656121944</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>131.7205999808062</v>
       </c>
       <c r="M21" t="n">
-        <v>173.2641194114734</v>
+        <v>218.140610007482</v>
       </c>
       <c r="N21" t="n">
         <v>192.4040918724002</v>
@@ -36220,7 +36220,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.78943443655633</v>
+        <v>18.91294384054839</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>179.0493420051849</v>
+        <v>179.0493420051856</v>
       </c>
       <c r="M22" t="n">
         <v>203.1696901045507</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K24" t="n">
         <v>63.16278140436984</v>
       </c>
       <c r="L24" t="n">
-        <v>248.8950473907584</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M24" t="n">
         <v>173.2641194114734</v>
@@ -36454,10 +36454,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P24" t="n">
-        <v>135.3169227939795</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.91294384054839</v>
+        <v>50.82331484859056</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>178.1635154538907</v>
       </c>
       <c r="N26" t="n">
-        <v>248.8950473907584</v>
+        <v>185.7067999020271</v>
       </c>
       <c r="O26" t="n">
-        <v>202.5908937078123</v>
+        <v>161.8877042666142</v>
       </c>
       <c r="P26" t="n">
         <v>103.3179143700195</v>
       </c>
       <c r="Q26" t="n">
-        <v>28.92811091512851</v>
+        <v>132.819547845058</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P27" t="n">
-        <v>248.8950473907584</v>
+        <v>103.7234426779939</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.50926665372176</v>
+        <v>167.6808713664863</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>173.2641194114734</v>
       </c>
       <c r="N30" t="n">
-        <v>248.8950473907584</v>
+        <v>192.4040918724002</v>
       </c>
       <c r="O30" t="n">
         <v>153.5679172983619</v>
       </c>
       <c r="P30" t="n">
-        <v>196.0004146855736</v>
+        <v>248.8950473907584</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.91294384054839</v>
+        <v>22.50926665372176</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>116.8575565178956</v>
       </c>
       <c r="K33" t="n">
         <v>63.16278140436984</v>
@@ -37168,7 +37168,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.6808713664863</v>
+        <v>50.82331484859056</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>16.41128244662715</v>
+        <v>16.41128244662761</v>
       </c>
       <c r="K35" t="n">
         <v>75.84728673267949</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>44.87649059600796</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>63.16278140436984</v>
@@ -37402,7 +37402,7 @@
         <v>153.5679172983619</v>
       </c>
       <c r="P36" t="n">
-        <v>103.7234426779939</v>
+        <v>148.5999332740018</v>
       </c>
       <c r="Q36" t="n">
         <v>18.91294384054839</v>
@@ -37472,7 +37472,7 @@
         <v>182.7418195035384</v>
       </c>
       <c r="M37" t="n">
-        <v>99.27825317462076</v>
+        <v>100.5017533235819</v>
       </c>
       <c r="N37" t="n">
         <v>203.8282805176756</v>
@@ -37484,7 +37484,7 @@
         <v>123.4947431105476</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.223500148961108</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>131.3697729949752</v>
       </c>
       <c r="M38" t="n">
-        <v>178.1635154538904</v>
+        <v>178.1635154538907</v>
       </c>
       <c r="N38" t="n">
         <v>185.7067999020271</v>
@@ -37706,13 +37706,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>177.8258418562239</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M40" t="n">
         <v>203.1696901045507</v>
       </c>
       <c r="N40" t="n">
-        <v>203.8282805176756</v>
+        <v>198.9123028703611</v>
       </c>
       <c r="O40" t="n">
         <v>172.090331344003</v>
@@ -37791,7 +37791,7 @@
         <v>178.1635154538907</v>
       </c>
       <c r="N41" t="n">
-        <v>185.7067999020271</v>
+        <v>185.7067999020267</v>
       </c>
       <c r="O41" t="n">
         <v>161.8877042666142</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>44.87649059600808</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>63.16278140436984</v>
@@ -37873,7 +37873,7 @@
         <v>192.4040918724002</v>
       </c>
       <c r="O42" t="n">
-        <v>153.5679172983619</v>
+        <v>198.44440789437</v>
       </c>
       <c r="P42" t="n">
         <v>103.7234426779939</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>98.97545928261535</v>
       </c>
       <c r="L43" t="n">
-        <v>179.0493420051851</v>
+        <v>182.7418195035384</v>
       </c>
       <c r="M43" t="n">
         <v>203.1696901045507</v>
@@ -37955,7 +37955,7 @@
         <v>172.090331344003</v>
       </c>
       <c r="P43" t="n">
-        <v>123.4947431105476</v>
+        <v>20.82680632957896</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.41128244662761</v>
+        <v>16.41128244662726</v>
       </c>
       <c r="K44" t="n">
         <v>75.84728673267949</v>
@@ -38037,7 +38037,7 @@
         <v>103.3179143700195</v>
       </c>
       <c r="Q44" t="n">
-        <v>28.92811091512819</v>
+        <v>28.92811091512851</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>63.16278140436984</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5970905768143</v>
+        <v>131.7205999808062</v>
       </c>
       <c r="M45" t="n">
         <v>173.2641194114734</v>
@@ -38116,7 +38116,7 @@
         <v>103.7234426779939</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.91294384054839</v>
+        <v>63.78943443655645</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>98.97545928261535</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>182.7418195035384</v>
@@ -38192,10 +38192,10 @@
         <v>172.090331344003</v>
       </c>
       <c r="P46" t="n">
-        <v>20.82680632957896</v>
+        <v>118.5787654632331</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.223500148961108</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
